--- a/data/raw/election/voters-age-sex-education/2023/Şanlıurfa.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Şanlıurfa.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-17:00:52-17348592583" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="42">
   <si>
     <t>Şanlıurfa</t>
   </si>
@@ -140,6 +139,12 @@
   </si>
   <si>
     <t>Viranşehir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -673,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -687,16 +692,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,10 +1035,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N342"/>
+  <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343:D344"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,52 +1054,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1139,11 +1153,11 @@
       <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="4">
-        <v>4.16</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3.085</v>
+      <c r="G6" s="5">
+        <v>4160</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3085</v>
       </c>
       <c r="I6" s="4">
         <v>330</v>
@@ -1157,8 +1171,8 @@
       <c r="L6" s="4">
         <v>139</v>
       </c>
-      <c r="M6" s="5">
-        <v>8.0579999999999998</v>
+      <c r="M6" s="6">
+        <v>8058</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1178,11 +1192,11 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <v>4.5880000000000001</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.282</v>
+      <c r="G7" s="5">
+        <v>4588</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1282</v>
       </c>
       <c r="I7" s="4">
         <v>207</v>
@@ -1196,8 +1210,8 @@
       <c r="L7" s="4">
         <v>50</v>
       </c>
-      <c r="M7" s="5">
-        <v>7.4349999999999996</v>
+      <c r="M7" s="6">
+        <v>7435</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1219,11 +1233,11 @@
       <c r="F8" s="4">
         <v>185</v>
       </c>
-      <c r="G8" s="4">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.2809999999999999</v>
+      <c r="G8" s="5">
+        <v>2180</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1281</v>
       </c>
       <c r="I8" s="4">
         <v>817</v>
@@ -1237,8 +1251,8 @@
       <c r="L8" s="4">
         <v>32</v>
       </c>
-      <c r="M8" s="5">
-        <v>4.782</v>
+      <c r="M8" s="6">
+        <v>4782</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1258,8 +1272,8 @@
       <c r="F9" s="4">
         <v>279</v>
       </c>
-      <c r="G9" s="4">
-        <v>1.3979999999999999</v>
+      <c r="G9" s="5">
+        <v>1398</v>
       </c>
       <c r="H9" s="4">
         <v>292</v>
@@ -1276,8 +1290,8 @@
       <c r="L9" s="4">
         <v>72</v>
       </c>
-      <c r="M9" s="5">
-        <v>4.4950000000000001</v>
+      <c r="M9" s="6">
+        <v>4495</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1296,8 +1310,8 @@
       <c r="E10" s="4">
         <v>168</v>
       </c>
-      <c r="F10" s="4">
-        <v>1.089</v>
+      <c r="F10" s="5">
+        <v>1089</v>
       </c>
       <c r="G10" s="4">
         <v>838</v>
@@ -1317,8 +1331,8 @@
       <c r="L10" s="4">
         <v>46</v>
       </c>
-      <c r="M10" s="5">
-        <v>3.8410000000000002</v>
+      <c r="M10" s="6">
+        <v>3841</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1356,8 +1370,8 @@
       <c r="L11" s="4">
         <v>96</v>
       </c>
-      <c r="M11" s="5">
-        <v>3.3940000000000001</v>
+      <c r="M11" s="6">
+        <v>3394</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1376,8 +1390,8 @@
       <c r="E12" s="4">
         <v>380</v>
       </c>
-      <c r="F12" s="4">
-        <v>1.0029999999999999</v>
+      <c r="F12" s="5">
+        <v>1003</v>
       </c>
       <c r="G12" s="4">
         <v>421</v>
@@ -1397,8 +1411,8 @@
       <c r="L12" s="4">
         <v>93</v>
       </c>
-      <c r="M12" s="5">
-        <v>2.9910000000000001</v>
+      <c r="M12" s="6">
+        <v>2991</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1436,8 +1450,8 @@
       <c r="L13" s="4">
         <v>119</v>
       </c>
-      <c r="M13" s="5">
-        <v>2.8260000000000001</v>
+      <c r="M13" s="6">
+        <v>2826</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1477,8 +1491,8 @@
       <c r="L14" s="4">
         <v>61</v>
       </c>
-      <c r="M14" s="5">
-        <v>2.641</v>
+      <c r="M14" s="6">
+        <v>2641</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1516,8 +1530,8 @@
       <c r="L15" s="4">
         <v>71</v>
       </c>
-      <c r="M15" s="5">
-        <v>2.532</v>
+      <c r="M15" s="6">
+        <v>2532</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1557,8 +1571,8 @@
       <c r="L16" s="4">
         <v>32</v>
       </c>
-      <c r="M16" s="5">
-        <v>2.06</v>
+      <c r="M16" s="6">
+        <v>2060</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1596,8 +1610,8 @@
       <c r="L17" s="4">
         <v>56</v>
       </c>
-      <c r="M17" s="5">
-        <v>1.83</v>
+      <c r="M17" s="6">
+        <v>1830</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1637,8 +1651,8 @@
       <c r="L18" s="4">
         <v>25</v>
       </c>
-      <c r="M18" s="5">
-        <v>1.512</v>
+      <c r="M18" s="6">
+        <v>1512</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1676,8 +1690,8 @@
       <c r="L19" s="4">
         <v>48</v>
       </c>
-      <c r="M19" s="5">
-        <v>1.488</v>
+      <c r="M19" s="6">
+        <v>1488</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1717,8 +1731,8 @@
       <c r="L20" s="4">
         <v>23</v>
       </c>
-      <c r="M20" s="5">
-        <v>1.4350000000000001</v>
+      <c r="M20" s="6">
+        <v>1435</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1756,8 +1770,8 @@
       <c r="L21" s="4">
         <v>48</v>
       </c>
-      <c r="M21" s="5">
-        <v>1.3839999999999999</v>
+      <c r="M21" s="6">
+        <v>1384</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1797,7 +1811,7 @@
       <c r="L22" s="4">
         <v>17</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="7">
         <v>763</v>
       </c>
     </row>
@@ -1836,8 +1850,8 @@
       <c r="L23" s="4">
         <v>23</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.026</v>
+      <c r="M23" s="6">
+        <v>1026</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1877,7 +1891,7 @@
       <c r="L24" s="4">
         <v>9</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="7">
         <v>727</v>
       </c>
     </row>
@@ -1916,7 +1930,7 @@
       <c r="L25" s="4">
         <v>15</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>778</v>
       </c>
     </row>
@@ -1957,7 +1971,7 @@
       <c r="L26" s="4">
         <v>4</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>431</v>
       </c>
     </row>
@@ -1996,7 +2010,7 @@
       <c r="L27" s="4">
         <v>19</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>604</v>
       </c>
     </row>
@@ -2037,7 +2051,7 @@
       <c r="L28" s="4">
         <v>4</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>390</v>
       </c>
     </row>
@@ -2076,7 +2090,7 @@
       <c r="L29" s="4">
         <v>30</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="7">
         <v>725</v>
       </c>
     </row>
@@ -2084,46 +2098,46 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>6.2729999999999997</v>
-      </c>
-      <c r="D30" s="5">
-        <v>5.1529999999999996</v>
-      </c>
-      <c r="E30" s="5">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F30" s="5">
-        <v>6.0490000000000004</v>
-      </c>
-      <c r="G30" s="5">
-        <v>17.443000000000001</v>
-      </c>
-      <c r="H30" s="5">
-        <v>9.8810000000000002</v>
-      </c>
-      <c r="I30" s="5">
-        <v>3.5779999999999998</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6">
+        <v>6273</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5153</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8290</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6049</v>
+      </c>
+      <c r="G30" s="6">
+        <v>17443</v>
+      </c>
+      <c r="H30" s="6">
+        <v>9881</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3578</v>
+      </c>
+      <c r="J30" s="7">
         <v>333</v>
       </c>
-      <c r="K30" s="5">
-        <v>16</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="M30" s="5">
-        <v>58.148000000000003</v>
+      <c r="K30" s="7">
+        <v>16</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1132</v>
+      </c>
+      <c r="M30" s="6">
+        <v>58148</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2177,11 +2191,11 @@
       <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" s="4">
-        <v>2.9550000000000001</v>
-      </c>
-      <c r="H32" s="4">
-        <v>2.7749999999999999</v>
+      <c r="G32" s="5">
+        <v>2955</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2775</v>
       </c>
       <c r="I32" s="4">
         <v>330</v>
@@ -2195,8 +2209,8 @@
       <c r="L32" s="4">
         <v>79</v>
       </c>
-      <c r="M32" s="5">
-        <v>6.3460000000000001</v>
+      <c r="M32" s="6">
+        <v>6346</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2216,11 +2230,11 @@
       <c r="F33" s="4">
         <v>3</v>
       </c>
-      <c r="G33" s="4">
-        <v>2.431</v>
-      </c>
-      <c r="H33" s="4">
-        <v>2.5680000000000001</v>
+      <c r="G33" s="5">
+        <v>2431</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2568</v>
       </c>
       <c r="I33" s="4">
         <v>598</v>
@@ -2234,8 +2248,8 @@
       <c r="L33" s="4">
         <v>22</v>
       </c>
-      <c r="M33" s="5">
-        <v>5.8559999999999999</v>
+      <c r="M33" s="6">
+        <v>5856</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2257,8 +2271,8 @@
       <c r="F34" s="4">
         <v>62</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.4219999999999999</v>
+      <c r="G34" s="5">
+        <v>1422</v>
       </c>
       <c r="H34" s="4">
         <v>906</v>
@@ -2275,8 +2289,8 @@
       <c r="L34" s="4">
         <v>20</v>
       </c>
-      <c r="M34" s="5">
-        <v>3.59</v>
+      <c r="M34" s="6">
+        <v>3590</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2296,14 +2310,14 @@
       <c r="F35" s="4">
         <v>143</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.143</v>
+      <c r="G35" s="5">
+        <v>1143</v>
       </c>
       <c r="H35" s="4">
         <v>597</v>
       </c>
-      <c r="I35" s="4">
-        <v>1.0840000000000001</v>
+      <c r="I35" s="5">
+        <v>1084</v>
       </c>
       <c r="J35" s="4">
         <v>95</v>
@@ -2314,8 +2328,8 @@
       <c r="L35" s="4">
         <v>28</v>
       </c>
-      <c r="M35" s="5">
-        <v>3.6190000000000002</v>
+      <c r="M35" s="6">
+        <v>3619</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2355,8 +2369,8 @@
       <c r="L36" s="4">
         <v>23</v>
       </c>
-      <c r="M36" s="5">
-        <v>3.2130000000000001</v>
+      <c r="M36" s="6">
+        <v>3213</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2394,8 +2408,8 @@
       <c r="L37" s="4">
         <v>21</v>
       </c>
-      <c r="M37" s="5">
-        <v>3.0529999999999999</v>
+      <c r="M37" s="6">
+        <v>3053</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2435,8 +2449,8 @@
       <c r="L38" s="4">
         <v>39</v>
       </c>
-      <c r="M38" s="5">
-        <v>2.9350000000000001</v>
+      <c r="M38" s="6">
+        <v>2935</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2474,8 +2488,8 @@
       <c r="L39" s="4">
         <v>32</v>
       </c>
-      <c r="M39" s="5">
-        <v>2.8079999999999998</v>
+      <c r="M39" s="6">
+        <v>2808</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2515,8 +2529,8 @@
       <c r="L40" s="4">
         <v>48</v>
       </c>
-      <c r="M40" s="5">
-        <v>2.7050000000000001</v>
+      <c r="M40" s="6">
+        <v>2705</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2554,8 +2568,8 @@
       <c r="L41" s="4">
         <v>27</v>
       </c>
-      <c r="M41" s="5">
-        <v>2.6960000000000002</v>
+      <c r="M41" s="6">
+        <v>2696</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2595,8 +2609,8 @@
       <c r="L42" s="4">
         <v>38</v>
       </c>
-      <c r="M42" s="5">
-        <v>2.1850000000000001</v>
+      <c r="M42" s="6">
+        <v>2185</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2634,8 +2648,8 @@
       <c r="L43" s="4">
         <v>27</v>
       </c>
-      <c r="M43" s="5">
-        <v>2.2690000000000001</v>
+      <c r="M43" s="6">
+        <v>2269</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2675,8 +2689,8 @@
       <c r="L44" s="4">
         <v>23</v>
       </c>
-      <c r="M44" s="5">
-        <v>1.9370000000000001</v>
+      <c r="M44" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2714,8 +2728,8 @@
       <c r="L45" s="4">
         <v>14</v>
       </c>
-      <c r="M45" s="5">
-        <v>1.954</v>
+      <c r="M45" s="6">
+        <v>1954</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2755,8 +2769,8 @@
       <c r="L46" s="4">
         <v>28</v>
       </c>
-      <c r="M46" s="5">
-        <v>1.6379999999999999</v>
+      <c r="M46" s="6">
+        <v>1638</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2794,8 +2808,8 @@
       <c r="L47" s="4">
         <v>19</v>
       </c>
-      <c r="M47" s="5">
-        <v>1.7010000000000001</v>
+      <c r="M47" s="6">
+        <v>1701</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2835,8 +2849,8 @@
       <c r="L48" s="4">
         <v>22</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.284</v>
+      <c r="M48" s="6">
+        <v>1284</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2874,8 +2888,8 @@
       <c r="L49" s="4">
         <v>15</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.353</v>
+      <c r="M49" s="6">
+        <v>1353</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2915,7 +2929,7 @@
       <c r="L50" s="4">
         <v>23</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="7">
         <v>885</v>
       </c>
     </row>
@@ -2954,8 +2968,8 @@
       <c r="L51" s="4">
         <v>8</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.087</v>
+      <c r="M51" s="6">
+        <v>1087</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2995,7 +3009,7 @@
       <c r="L52" s="4">
         <v>4</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="7">
         <v>675</v>
       </c>
     </row>
@@ -3034,7 +3048,7 @@
       <c r="L53" s="4">
         <v>13</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="7">
         <v>861</v>
       </c>
     </row>
@@ -3075,7 +3089,7 @@
       <c r="L54" s="4">
         <v>9</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <v>764</v>
       </c>
     </row>
@@ -3114,54 +3128,54 @@
       <c r="L55" s="4">
         <v>22</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.3620000000000001</v>
+      <c r="M55" s="6">
+        <v>1362</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>4.4240000000000004</v>
-      </c>
-      <c r="D56" s="5">
-        <v>4.3339999999999996</v>
-      </c>
-      <c r="E56" s="5">
-        <v>11.207000000000001</v>
-      </c>
-      <c r="F56" s="5">
-        <v>3.9780000000000002</v>
-      </c>
-      <c r="G56" s="5">
-        <v>11.933999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>13.73</v>
-      </c>
-      <c r="I56" s="5">
-        <v>5.875</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="6">
+        <v>4424</v>
+      </c>
+      <c r="D56" s="6">
+        <v>4334</v>
+      </c>
+      <c r="E56" s="6">
+        <v>11207</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3978</v>
+      </c>
+      <c r="G56" s="6">
+        <v>11934</v>
+      </c>
+      <c r="H56" s="6">
+        <v>13730</v>
+      </c>
+      <c r="I56" s="6">
+        <v>5875</v>
+      </c>
+      <c r="J56" s="7">
         <v>663</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>27</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>604</v>
       </c>
-      <c r="M56" s="5">
-        <v>56.776000000000003</v>
+      <c r="M56" s="6">
+        <v>56776</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3215,11 +3229,11 @@
       <c r="F58" s="4">
         <v>3</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="H58" s="4">
-        <v>1.77</v>
+      <c r="G58" s="5">
+        <v>1737</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1770</v>
       </c>
       <c r="I58" s="4">
         <v>224</v>
@@ -3233,8 +3247,8 @@
       <c r="L58" s="4">
         <v>37</v>
       </c>
-      <c r="M58" s="5">
-        <v>3.883</v>
+      <c r="M58" s="6">
+        <v>3883</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3254,11 +3268,11 @@
       <c r="F59" s="4">
         <v>1</v>
       </c>
-      <c r="G59" s="4">
-        <v>1.4590000000000001</v>
-      </c>
-      <c r="H59" s="4">
-        <v>1.6259999999999999</v>
+      <c r="G59" s="5">
+        <v>1459</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1626</v>
       </c>
       <c r="I59" s="4">
         <v>282</v>
@@ -3272,8 +3286,8 @@
       <c r="L59" s="4">
         <v>11</v>
       </c>
-      <c r="M59" s="5">
-        <v>3.5139999999999998</v>
+      <c r="M59" s="6">
+        <v>3514</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3313,8 +3327,8 @@
       <c r="L60" s="4">
         <v>6</v>
       </c>
-      <c r="M60" s="5">
-        <v>2.141</v>
+      <c r="M60" s="6">
+        <v>2141</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3352,8 +3366,8 @@
       <c r="L61" s="4">
         <v>4</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.927</v>
+      <c r="M61" s="6">
+        <v>1927</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3393,8 +3407,8 @@
       <c r="L62" s="4">
         <v>8</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.732</v>
+      <c r="M62" s="6">
+        <v>1732</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3432,8 +3446,8 @@
       <c r="L63" s="4">
         <v>11</v>
       </c>
-      <c r="M63" s="5">
-        <v>1.663</v>
+      <c r="M63" s="6">
+        <v>1663</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3473,8 +3487,8 @@
       <c r="L64" s="4">
         <v>21</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.5149999999999999</v>
+      <c r="M64" s="6">
+        <v>1515</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3512,8 +3526,8 @@
       <c r="L65" s="4">
         <v>8</v>
       </c>
-      <c r="M65" s="5">
-        <v>1.4330000000000001</v>
+      <c r="M65" s="6">
+        <v>1433</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3553,8 +3567,8 @@
       <c r="L66" s="4">
         <v>25</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.3240000000000001</v>
+      <c r="M66" s="6">
+        <v>1324</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3592,8 +3606,8 @@
       <c r="L67" s="4">
         <v>12</v>
       </c>
-      <c r="M67" s="5">
-        <v>1.3160000000000001</v>
+      <c r="M67" s="6">
+        <v>1316</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3633,8 +3647,8 @@
       <c r="L68" s="4">
         <v>9</v>
       </c>
-      <c r="M68" s="5">
-        <v>1.232</v>
+      <c r="M68" s="6">
+        <v>1232</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3672,8 +3686,8 @@
       <c r="L69" s="4">
         <v>5</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.3049999999999999</v>
+      <c r="M69" s="6">
+        <v>1305</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3713,8 +3727,8 @@
       <c r="L70" s="4">
         <v>11</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.077</v>
+      <c r="M70" s="6">
+        <v>1077</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3752,7 +3766,7 @@
       <c r="L71" s="4">
         <v>9</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="7">
         <v>931</v>
       </c>
     </row>
@@ -3793,8 +3807,8 @@
       <c r="L72" s="4">
         <v>21</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.075</v>
+      <c r="M72" s="6">
+        <v>1075</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3832,8 +3846,8 @@
       <c r="L73" s="4">
         <v>3</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.0760000000000001</v>
+      <c r="M73" s="6">
+        <v>1076</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3873,7 +3887,7 @@
       <c r="L74" s="4">
         <v>8</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="7">
         <v>768</v>
       </c>
     </row>
@@ -3912,7 +3926,7 @@
       <c r="L75" s="4">
         <v>6</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="7">
         <v>850</v>
       </c>
     </row>
@@ -3953,7 +3967,7 @@
       <c r="L76" s="4">
         <v>11</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="7">
         <v>649</v>
       </c>
     </row>
@@ -3992,7 +4006,7 @@
       <c r="L77" s="4">
         <v>7</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="7">
         <v>680</v>
       </c>
     </row>
@@ -4033,7 +4047,7 @@
       <c r="L78" s="4">
         <v>5</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>487</v>
       </c>
     </row>
@@ -4072,7 +4086,7 @@
       <c r="L79" s="4">
         <v>4</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="7">
         <v>680</v>
       </c>
     </row>
@@ -4113,7 +4127,7 @@
       <c r="L80" s="4">
         <v>4</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>651</v>
       </c>
     </row>
@@ -4152,54 +4166,54 @@
       <c r="L81" s="4">
         <v>13</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.17</v>
+      <c r="M81" s="6">
+        <v>1170</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>3.4039999999999999</v>
-      </c>
-      <c r="D82" s="5">
-        <v>2.6640000000000001</v>
-      </c>
-      <c r="E82" s="5">
-        <v>5.7290000000000001</v>
-      </c>
-      <c r="F82" s="5">
-        <v>3.3170000000000002</v>
-      </c>
-      <c r="G82" s="5">
-        <v>7.14</v>
-      </c>
-      <c r="H82" s="5">
-        <v>7.4530000000000003</v>
-      </c>
-      <c r="I82" s="5">
-        <v>2.8420000000000001</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6">
+        <v>3404</v>
+      </c>
+      <c r="D82" s="6">
+        <v>2664</v>
+      </c>
+      <c r="E82" s="6">
+        <v>5729</v>
+      </c>
+      <c r="F82" s="6">
+        <v>3317</v>
+      </c>
+      <c r="G82" s="6">
+        <v>7140</v>
+      </c>
+      <c r="H82" s="6">
+        <v>7453</v>
+      </c>
+      <c r="I82" s="6">
+        <v>2842</v>
+      </c>
+      <c r="J82" s="7">
         <v>252</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="7">
         <v>19</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="7">
         <v>259</v>
       </c>
-      <c r="M82" s="5">
-        <v>33.079000000000001</v>
+      <c r="M82" s="6">
+        <v>33079</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4253,11 +4267,11 @@
       <c r="F84" s="4">
         <v>3</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.8109999999999999</v>
-      </c>
-      <c r="H84" s="4">
-        <v>3.718</v>
+      <c r="G84" s="5">
+        <v>1811</v>
+      </c>
+      <c r="H84" s="5">
+        <v>3718</v>
       </c>
       <c r="I84" s="4">
         <v>382</v>
@@ -4271,8 +4285,8 @@
       <c r="L84" s="4">
         <v>87</v>
       </c>
-      <c r="M84" s="5">
-        <v>6.1959999999999997</v>
+      <c r="M84" s="6">
+        <v>6196</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4292,11 +4306,11 @@
       <c r="F85" s="4">
         <v>4</v>
       </c>
-      <c r="G85" s="4">
-        <v>2.3650000000000002</v>
-      </c>
-      <c r="H85" s="4">
-        <v>2.601</v>
+      <c r="G85" s="5">
+        <v>2365</v>
+      </c>
+      <c r="H85" s="5">
+        <v>2601</v>
       </c>
       <c r="I85" s="4">
         <v>510</v>
@@ -4310,8 +4324,8 @@
       <c r="L85" s="4">
         <v>13</v>
       </c>
-      <c r="M85" s="5">
-        <v>6.0810000000000004</v>
+      <c r="M85" s="6">
+        <v>6081</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4336,11 +4350,11 @@
       <c r="G86" s="4">
         <v>823</v>
       </c>
-      <c r="H86" s="4">
-        <v>1.716</v>
-      </c>
-      <c r="I86" s="4">
-        <v>1.109</v>
+      <c r="H86" s="5">
+        <v>1716</v>
+      </c>
+      <c r="I86" s="5">
+        <v>1109</v>
       </c>
       <c r="J86" s="4">
         <v>76</v>
@@ -4351,8 +4365,8 @@
       <c r="L86" s="4">
         <v>17</v>
       </c>
-      <c r="M86" s="5">
-        <v>3.9489999999999998</v>
+      <c r="M86" s="6">
+        <v>3949</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4378,8 +4392,8 @@
       <c r="H87" s="4">
         <v>728</v>
       </c>
-      <c r="I87" s="4">
-        <v>1.0980000000000001</v>
+      <c r="I87" s="5">
+        <v>1098</v>
       </c>
       <c r="J87" s="4">
         <v>77</v>
@@ -4390,8 +4404,8 @@
       <c r="L87" s="4">
         <v>40</v>
       </c>
-      <c r="M87" s="5">
-        <v>3.7770000000000001</v>
+      <c r="M87" s="6">
+        <v>3777</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4416,11 +4430,11 @@
       <c r="G88" s="4">
         <v>424</v>
       </c>
-      <c r="H88" s="4">
-        <v>1.244</v>
-      </c>
-      <c r="I88" s="4">
-        <v>1.018</v>
+      <c r="H88" s="5">
+        <v>1244</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1018</v>
       </c>
       <c r="J88" s="4">
         <v>137</v>
@@ -4431,8 +4445,8 @@
       <c r="L88" s="4">
         <v>12</v>
       </c>
-      <c r="M88" s="5">
-        <v>3.3479999999999999</v>
+      <c r="M88" s="6">
+        <v>3348</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4470,8 +4484,8 @@
       <c r="L89" s="4">
         <v>39</v>
       </c>
-      <c r="M89" s="5">
-        <v>3.0510000000000002</v>
+      <c r="M89" s="6">
+        <v>3051</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4496,8 +4510,8 @@
       <c r="G90" s="4">
         <v>286</v>
       </c>
-      <c r="H90" s="4">
-        <v>1.02</v>
+      <c r="H90" s="5">
+        <v>1020</v>
       </c>
       <c r="I90" s="4">
         <v>506</v>
@@ -4511,8 +4525,8 @@
       <c r="L90" s="4">
         <v>13</v>
       </c>
-      <c r="M90" s="5">
-        <v>2.7749999999999999</v>
+      <c r="M90" s="6">
+        <v>2775</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4550,8 +4564,8 @@
       <c r="L91" s="4">
         <v>40</v>
       </c>
-      <c r="M91" s="5">
-        <v>2.6320000000000001</v>
+      <c r="M91" s="6">
+        <v>2632</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4591,8 +4605,8 @@
       <c r="L92" s="4">
         <v>6</v>
       </c>
-      <c r="M92" s="5">
-        <v>2.4980000000000002</v>
+      <c r="M92" s="6">
+        <v>2498</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4630,8 +4644,8 @@
       <c r="L93" s="4">
         <v>34</v>
       </c>
-      <c r="M93" s="5">
-        <v>2.3929999999999998</v>
+      <c r="M93" s="6">
+        <v>2393</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4671,8 +4685,8 @@
       <c r="L94" s="4">
         <v>22</v>
       </c>
-      <c r="M94" s="5">
-        <v>1.98</v>
+      <c r="M94" s="6">
+        <v>1980</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4710,8 +4724,8 @@
       <c r="L95" s="4">
         <v>21</v>
       </c>
-      <c r="M95" s="5">
-        <v>2.0150000000000001</v>
+      <c r="M95" s="6">
+        <v>2015</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4751,8 +4765,8 @@
       <c r="L96" s="4">
         <v>5</v>
       </c>
-      <c r="M96" s="5">
-        <v>1.4330000000000001</v>
+      <c r="M96" s="6">
+        <v>1433</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4790,8 +4804,8 @@
       <c r="L97" s="4">
         <v>18</v>
       </c>
-      <c r="M97" s="5">
-        <v>1.43</v>
+      <c r="M97" s="6">
+        <v>1430</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4831,8 +4845,8 @@
       <c r="L98" s="4">
         <v>4</v>
       </c>
-      <c r="M98" s="5">
-        <v>1.3979999999999999</v>
+      <c r="M98" s="6">
+        <v>1398</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4870,8 +4884,8 @@
       <c r="L99" s="4">
         <v>20</v>
       </c>
-      <c r="M99" s="5">
-        <v>1.3220000000000001</v>
+      <c r="M99" s="6">
+        <v>1322</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4911,7 +4925,7 @@
       <c r="L100" s="4">
         <v>4</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="7">
         <v>830</v>
       </c>
     </row>
@@ -4950,7 +4964,7 @@
       <c r="L101" s="4">
         <v>6</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="7">
         <v>925</v>
       </c>
     </row>
@@ -4991,7 +5005,7 @@
       <c r="L102" s="4">
         <v>8</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="7">
         <v>577</v>
       </c>
     </row>
@@ -5030,7 +5044,7 @@
       <c r="L103" s="4">
         <v>9</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="7">
         <v>661</v>
       </c>
     </row>
@@ -5071,7 +5085,7 @@
       <c r="L104" s="4">
         <v>2</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="7">
         <v>382</v>
       </c>
     </row>
@@ -5110,7 +5124,7 @@
       <c r="L105" s="4">
         <v>5</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="7">
         <v>520</v>
       </c>
     </row>
@@ -5151,7 +5165,7 @@
       <c r="L106" s="4">
         <v>4</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="7">
         <v>491</v>
       </c>
     </row>
@@ -5190,7 +5204,7 @@
       <c r="L107" s="4">
         <v>14</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="7">
         <v>818</v>
       </c>
     </row>
@@ -5198,46 +5212,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>3.6230000000000002</v>
-      </c>
-      <c r="D108" s="5">
-        <v>3.548</v>
-      </c>
-      <c r="E108" s="5">
-        <v>6.0659999999999998</v>
-      </c>
-      <c r="F108" s="5">
-        <v>5.4829999999999997</v>
-      </c>
-      <c r="G108" s="5">
-        <v>10.085000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>15.349</v>
-      </c>
-      <c r="I108" s="5">
-        <v>6.2949999999999999</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="6">
+        <v>3623</v>
+      </c>
+      <c r="D108" s="6">
+        <v>3548</v>
+      </c>
+      <c r="E108" s="6">
+        <v>6066</v>
+      </c>
+      <c r="F108" s="6">
+        <v>5483</v>
+      </c>
+      <c r="G108" s="6">
+        <v>10085</v>
+      </c>
+      <c r="H108" s="6">
+        <v>15349</v>
+      </c>
+      <c r="I108" s="6">
+        <v>6295</v>
+      </c>
+      <c r="J108" s="7">
         <v>571</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="7">
         <v>19</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>443</v>
       </c>
-      <c r="M108" s="5">
-        <v>51.481999999999999</v>
+      <c r="M108" s="6">
+        <v>51482</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5291,14 +5305,14 @@
       <c r="F110" s="4">
         <v>52</v>
       </c>
-      <c r="G110" s="4">
-        <v>14.446999999999999</v>
-      </c>
-      <c r="H110" s="4">
-        <v>9.8239999999999998</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1.103</v>
+      <c r="G110" s="5">
+        <v>14447</v>
+      </c>
+      <c r="H110" s="5">
+        <v>9824</v>
+      </c>
+      <c r="I110" s="5">
+        <v>1103</v>
       </c>
       <c r="J110" s="4">
         <v>3</v>
@@ -5309,8 +5323,8 @@
       <c r="L110" s="4">
         <v>368</v>
       </c>
-      <c r="M110" s="5">
-        <v>27.062999999999999</v>
+      <c r="M110" s="6">
+        <v>27063</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5321,20 +5335,20 @@
       <c r="C111" s="4">
         <v>87</v>
       </c>
-      <c r="D111" s="4">
-        <v>1.748</v>
-      </c>
-      <c r="E111" s="4">
-        <v>1.6850000000000001</v>
+      <c r="D111" s="5">
+        <v>1748</v>
+      </c>
+      <c r="E111" s="5">
+        <v>1685</v>
       </c>
       <c r="F111" s="4">
         <v>48</v>
       </c>
-      <c r="G111" s="4">
-        <v>14.596</v>
-      </c>
-      <c r="H111" s="4">
-        <v>6.5369999999999999</v>
+      <c r="G111" s="5">
+        <v>14596</v>
+      </c>
+      <c r="H111" s="5">
+        <v>6537</v>
       </c>
       <c r="I111" s="4">
         <v>958</v>
@@ -5348,8 +5362,8 @@
       <c r="L111" s="4">
         <v>107</v>
       </c>
-      <c r="M111" s="5">
-        <v>25.77</v>
+      <c r="M111" s="6">
+        <v>25770</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5371,14 +5385,14 @@
       <c r="F112" s="4">
         <v>817</v>
       </c>
-      <c r="G112" s="4">
-        <v>7.5140000000000002</v>
-      </c>
-      <c r="H112" s="4">
-        <v>4.0490000000000004</v>
-      </c>
-      <c r="I112" s="4">
-        <v>2.2509999999999999</v>
+      <c r="G112" s="5">
+        <v>7514</v>
+      </c>
+      <c r="H112" s="5">
+        <v>4049</v>
+      </c>
+      <c r="I112" s="5">
+        <v>2251</v>
       </c>
       <c r="J112" s="4">
         <v>95</v>
@@ -5389,8 +5403,8 @@
       <c r="L112" s="4">
         <v>79</v>
       </c>
-      <c r="M112" s="5">
-        <v>16.059999999999999</v>
+      <c r="M112" s="6">
+        <v>16060</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5398,26 +5412,26 @@
       <c r="B113" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="4">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="D113" s="4">
-        <v>2.7919999999999998</v>
-      </c>
-      <c r="E113" s="4">
-        <v>2.2080000000000002</v>
+      <c r="C113" s="5">
+        <v>1021</v>
+      </c>
+      <c r="D113" s="5">
+        <v>2792</v>
+      </c>
+      <c r="E113" s="5">
+        <v>2208</v>
       </c>
       <c r="F113" s="4">
         <v>814</v>
       </c>
-      <c r="G113" s="4">
-        <v>4.524</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="I113" s="4">
-        <v>1.4359999999999999</v>
+      <c r="G113" s="5">
+        <v>4524</v>
+      </c>
+      <c r="H113" s="5">
+        <v>1670</v>
+      </c>
+      <c r="I113" s="5">
+        <v>1436</v>
       </c>
       <c r="J113" s="4">
         <v>49</v>
@@ -5428,8 +5442,8 @@
       <c r="L113" s="4">
         <v>234</v>
       </c>
-      <c r="M113" s="5">
-        <v>14.747999999999999</v>
+      <c r="M113" s="6">
+        <v>14748</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5448,17 +5462,17 @@
       <c r="E114" s="4">
         <v>764</v>
       </c>
-      <c r="F114" s="4">
-        <v>3.8370000000000002</v>
-      </c>
-      <c r="G114" s="4">
-        <v>3.077</v>
-      </c>
-      <c r="H114" s="4">
-        <v>2.8010000000000002</v>
-      </c>
-      <c r="I114" s="4">
-        <v>1.5629999999999999</v>
+      <c r="F114" s="5">
+        <v>3837</v>
+      </c>
+      <c r="G114" s="5">
+        <v>3077</v>
+      </c>
+      <c r="H114" s="5">
+        <v>2801</v>
+      </c>
+      <c r="I114" s="5">
+        <v>1563</v>
       </c>
       <c r="J114" s="4">
         <v>131</v>
@@ -5469,8 +5483,8 @@
       <c r="L114" s="4">
         <v>101</v>
       </c>
-      <c r="M114" s="5">
-        <v>13.242000000000001</v>
+      <c r="M114" s="6">
+        <v>13242</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5478,23 +5492,23 @@
       <c r="B115" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C115" s="4">
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="D115" s="4">
-        <v>3.637</v>
-      </c>
-      <c r="E115" s="4">
-        <v>1.288</v>
-      </c>
-      <c r="F115" s="4">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="G115" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="H115" s="4">
-        <v>1.06</v>
+      <c r="C115" s="5">
+        <v>2288</v>
+      </c>
+      <c r="D115" s="5">
+        <v>3637</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1288</v>
+      </c>
+      <c r="F115" s="5">
+        <v>2220</v>
+      </c>
+      <c r="G115" s="5">
+        <v>1016</v>
+      </c>
+      <c r="H115" s="5">
+        <v>1060</v>
       </c>
       <c r="I115" s="4">
         <v>634</v>
@@ -5508,8 +5522,8 @@
       <c r="L115" s="4">
         <v>324</v>
       </c>
-      <c r="M115" s="5">
-        <v>12.53</v>
+      <c r="M115" s="6">
+        <v>12530</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5525,17 +5539,17 @@
       <c r="D116" s="4">
         <v>715</v>
       </c>
-      <c r="E116" s="4">
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="F116" s="4">
-        <v>3.4790000000000001</v>
-      </c>
-      <c r="G116" s="4">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="H116" s="4">
-        <v>2.1080000000000001</v>
+      <c r="E116" s="5">
+        <v>1513</v>
+      </c>
+      <c r="F116" s="5">
+        <v>3479</v>
+      </c>
+      <c r="G116" s="5">
+        <v>1293</v>
+      </c>
+      <c r="H116" s="5">
+        <v>2108</v>
       </c>
       <c r="I116" s="4">
         <v>779</v>
@@ -5549,8 +5563,8 @@
       <c r="L116" s="4">
         <v>161</v>
       </c>
-      <c r="M116" s="5">
-        <v>10.342000000000001</v>
+      <c r="M116" s="6">
+        <v>10342</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5558,17 +5572,17 @@
       <c r="B117" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="4">
-        <v>2.2709999999999999</v>
-      </c>
-      <c r="D117" s="4">
-        <v>2.4140000000000001</v>
-      </c>
-      <c r="E117" s="4">
-        <v>2.4209999999999998</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1.0860000000000001</v>
+      <c r="C117" s="5">
+        <v>2271</v>
+      </c>
+      <c r="D117" s="5">
+        <v>2414</v>
+      </c>
+      <c r="E117" s="5">
+        <v>2421</v>
+      </c>
+      <c r="F117" s="5">
+        <v>1086</v>
       </c>
       <c r="G117" s="4">
         <v>556</v>
@@ -5588,8 +5602,8 @@
       <c r="L117" s="4">
         <v>268</v>
       </c>
-      <c r="M117" s="5">
-        <v>10.084</v>
+      <c r="M117" s="6">
+        <v>10084</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5605,17 +5619,17 @@
       <c r="D118" s="4">
         <v>457</v>
       </c>
-      <c r="E118" s="4">
-        <v>2.3340000000000001</v>
-      </c>
-      <c r="F118" s="4">
-        <v>2.5219999999999998</v>
-      </c>
-      <c r="G118" s="4">
-        <v>1.468</v>
-      </c>
-      <c r="H118" s="4">
-        <v>1.619</v>
+      <c r="E118" s="5">
+        <v>2334</v>
+      </c>
+      <c r="F118" s="5">
+        <v>2522</v>
+      </c>
+      <c r="G118" s="5">
+        <v>1468</v>
+      </c>
+      <c r="H118" s="5">
+        <v>1619</v>
       </c>
       <c r="I118" s="4">
         <v>396</v>
@@ -5629,8 +5643,8 @@
       <c r="L118" s="4">
         <v>127</v>
       </c>
-      <c r="M118" s="5">
-        <v>9.2129999999999992</v>
+      <c r="M118" s="6">
+        <v>9213</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5638,14 +5652,14 @@
       <c r="B119" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C119" s="4">
-        <v>2.6309999999999998</v>
-      </c>
-      <c r="D119" s="4">
-        <v>2.0619999999999998</v>
-      </c>
-      <c r="E119" s="4">
-        <v>2.827</v>
+      <c r="C119" s="5">
+        <v>2631</v>
+      </c>
+      <c r="D119" s="5">
+        <v>2062</v>
+      </c>
+      <c r="E119" s="5">
+        <v>2827</v>
       </c>
       <c r="F119" s="4">
         <v>465</v>
@@ -5668,8 +5682,8 @@
       <c r="L119" s="4">
         <v>234</v>
       </c>
-      <c r="M119" s="5">
-        <v>9.6359999999999992</v>
+      <c r="M119" s="6">
+        <v>9636</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5685,17 +5699,17 @@
       <c r="D120" s="4">
         <v>330</v>
       </c>
-      <c r="E120" s="4">
-        <v>2.0590000000000002</v>
-      </c>
-      <c r="F120" s="4">
-        <v>1.792</v>
+      <c r="E120" s="5">
+        <v>2059</v>
+      </c>
+      <c r="F120" s="5">
+        <v>1792</v>
       </c>
       <c r="G120" s="4">
         <v>981</v>
       </c>
-      <c r="H120" s="4">
-        <v>1.111</v>
+      <c r="H120" s="5">
+        <v>1111</v>
       </c>
       <c r="I120" s="4">
         <v>290</v>
@@ -5709,8 +5723,8 @@
       <c r="L120" s="4">
         <v>72</v>
       </c>
-      <c r="M120" s="5">
-        <v>6.8150000000000004</v>
+      <c r="M120" s="6">
+        <v>6815</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5718,14 +5732,14 @@
       <c r="B121" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="4">
-        <v>2.1579999999999999</v>
-      </c>
-      <c r="D121" s="4">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="E121" s="4">
-        <v>1.986</v>
+      <c r="C121" s="5">
+        <v>2158</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1555</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1986</v>
       </c>
       <c r="F121" s="4">
         <v>288</v>
@@ -5748,8 +5762,8 @@
       <c r="L121" s="4">
         <v>129</v>
       </c>
-      <c r="M121" s="5">
-        <v>7.0519999999999996</v>
+      <c r="M121" s="6">
+        <v>7052</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5765,11 +5779,11 @@
       <c r="D122" s="4">
         <v>327</v>
       </c>
-      <c r="E122" s="4">
-        <v>1.895</v>
-      </c>
-      <c r="F122" s="4">
-        <v>1.363</v>
+      <c r="E122" s="5">
+        <v>1895</v>
+      </c>
+      <c r="F122" s="5">
+        <v>1363</v>
       </c>
       <c r="G122" s="4">
         <v>817</v>
@@ -5789,8 +5803,8 @@
       <c r="L122" s="4">
         <v>56</v>
       </c>
-      <c r="M122" s="5">
-        <v>5.548</v>
+      <c r="M122" s="6">
+        <v>5548</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5798,14 +5812,14 @@
       <c r="B123" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="4">
-        <v>2.0289999999999999</v>
-      </c>
-      <c r="D123" s="4">
-        <v>1.3120000000000001</v>
-      </c>
-      <c r="E123" s="4">
-        <v>1.3640000000000001</v>
+      <c r="C123" s="5">
+        <v>2029</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1312</v>
+      </c>
+      <c r="E123" s="5">
+        <v>1364</v>
       </c>
       <c r="F123" s="4">
         <v>163</v>
@@ -5828,8 +5842,8 @@
       <c r="L123" s="4">
         <v>64</v>
       </c>
-      <c r="M123" s="5">
-        <v>5.556</v>
+      <c r="M123" s="6">
+        <v>5556</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5845,11 +5859,11 @@
       <c r="D124" s="4">
         <v>366</v>
       </c>
-      <c r="E124" s="4">
-        <v>1.7509999999999999</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1.121</v>
+      <c r="E124" s="5">
+        <v>1751</v>
+      </c>
+      <c r="F124" s="5">
+        <v>1121</v>
       </c>
       <c r="G124" s="4">
         <v>698</v>
@@ -5869,8 +5883,8 @@
       <c r="L124" s="4">
         <v>41</v>
       </c>
-      <c r="M124" s="5">
-        <v>4.8639999999999999</v>
+      <c r="M124" s="6">
+        <v>4864</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5878,14 +5892,14 @@
       <c r="B125" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="4">
-        <v>2.1040000000000001</v>
-      </c>
-      <c r="D125" s="4">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="E125" s="4">
-        <v>1.016</v>
+      <c r="C125" s="5">
+        <v>2104</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1126</v>
+      </c>
+      <c r="E125" s="5">
+        <v>1016</v>
       </c>
       <c r="F125" s="4">
         <v>111</v>
@@ -5908,8 +5922,8 @@
       <c r="L125" s="4">
         <v>63</v>
       </c>
-      <c r="M125" s="5">
-        <v>4.806</v>
+      <c r="M125" s="6">
+        <v>4806</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5925,8 +5939,8 @@
       <c r="D126" s="4">
         <v>337</v>
       </c>
-      <c r="E126" s="4">
-        <v>1.1819999999999999</v>
+      <c r="E126" s="5">
+        <v>1182</v>
       </c>
       <c r="F126" s="4">
         <v>590</v>
@@ -5949,8 +5963,8 @@
       <c r="L126" s="4">
         <v>38</v>
       </c>
-      <c r="M126" s="5">
-        <v>3.3170000000000002</v>
+      <c r="M126" s="6">
+        <v>3317</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5958,8 +5972,8 @@
       <c r="B127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="4">
-        <v>2.016</v>
+      <c r="C127" s="5">
+        <v>2016</v>
       </c>
       <c r="D127" s="4">
         <v>907</v>
@@ -5988,8 +6002,8 @@
       <c r="L127" s="4">
         <v>64</v>
       </c>
-      <c r="M127" s="5">
-        <v>3.9449999999999998</v>
+      <c r="M127" s="6">
+        <v>3945</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6029,8 +6043,8 @@
       <c r="L128" s="4">
         <v>38</v>
       </c>
-      <c r="M128" s="5">
-        <v>2.4740000000000002</v>
+      <c r="M128" s="6">
+        <v>2474</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6038,8 +6052,8 @@
       <c r="B129" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="4">
-        <v>1.645</v>
+      <c r="C129" s="5">
+        <v>1645</v>
       </c>
       <c r="D129" s="4">
         <v>534</v>
@@ -6068,8 +6082,8 @@
       <c r="L129" s="4">
         <v>50</v>
       </c>
-      <c r="M129" s="5">
-        <v>2.73</v>
+      <c r="M129" s="6">
+        <v>2730</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6109,8 +6123,8 @@
       <c r="L130" s="4">
         <v>34</v>
       </c>
-      <c r="M130" s="5">
-        <v>1.671</v>
+      <c r="M130" s="6">
+        <v>1671</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6118,8 +6132,8 @@
       <c r="B131" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="4">
-        <v>1.383</v>
+      <c r="C131" s="5">
+        <v>1383</v>
       </c>
       <c r="D131" s="4">
         <v>350</v>
@@ -6148,8 +6162,8 @@
       <c r="L131" s="4">
         <v>36</v>
       </c>
-      <c r="M131" s="5">
-        <v>2.008</v>
+      <c r="M131" s="6">
+        <v>2008</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6189,8 +6203,8 @@
       <c r="L132" s="4">
         <v>61</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.6679999999999999</v>
+      <c r="M132" s="6">
+        <v>1668</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6198,8 +6212,8 @@
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>2.145</v>
+      <c r="C133" s="5">
+        <v>2145</v>
       </c>
       <c r="D133" s="4">
         <v>382</v>
@@ -6228,54 +6242,54 @@
       <c r="L133" s="4">
         <v>104</v>
       </c>
-      <c r="M133" s="5">
-        <v>2.8079999999999998</v>
+      <c r="M133" s="6">
+        <v>2808</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>24.358000000000001</v>
-      </c>
-      <c r="D134" s="5">
-        <v>24.06</v>
-      </c>
-      <c r="E134" s="5">
-        <v>31.292000000000002</v>
-      </c>
-      <c r="F134" s="5">
-        <v>21.286000000000001</v>
-      </c>
-      <c r="G134" s="5">
-        <v>53.963999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>35.241</v>
-      </c>
-      <c r="I134" s="5">
-        <v>10.226000000000001</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="6">
+        <v>24358</v>
+      </c>
+      <c r="D134" s="6">
+        <v>24060</v>
+      </c>
+      <c r="E134" s="6">
+        <v>31292</v>
+      </c>
+      <c r="F134" s="6">
+        <v>21286</v>
+      </c>
+      <c r="G134" s="6">
+        <v>53964</v>
+      </c>
+      <c r="H134" s="6">
+        <v>35241</v>
+      </c>
+      <c r="I134" s="6">
+        <v>10226</v>
+      </c>
+      <c r="J134" s="7">
         <v>582</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="7">
         <v>88</v>
       </c>
-      <c r="L134" s="5">
-        <v>2.8530000000000002</v>
-      </c>
-      <c r="M134" s="5">
-        <v>203.95</v>
+      <c r="L134" s="6">
+        <v>2853</v>
+      </c>
+      <c r="M134" s="6">
+        <v>203950</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6329,8 +6343,8 @@
       <c r="F136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.43</v>
+      <c r="G136" s="5">
+        <v>1430</v>
       </c>
       <c r="H136" s="4">
         <v>921</v>
@@ -6347,8 +6361,8 @@
       <c r="L136" s="4">
         <v>27</v>
       </c>
-      <c r="M136" s="5">
-        <v>2.621</v>
+      <c r="M136" s="6">
+        <v>2621</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6368,11 +6382,11 @@
       <c r="F137" s="4">
         <v>3</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.081</v>
-      </c>
-      <c r="H137" s="4">
-        <v>1.226</v>
+      <c r="G137" s="5">
+        <v>1081</v>
+      </c>
+      <c r="H137" s="5">
+        <v>1226</v>
       </c>
       <c r="I137" s="4">
         <v>273</v>
@@ -6386,8 +6400,8 @@
       <c r="L137" s="4">
         <v>8</v>
       </c>
-      <c r="M137" s="5">
-        <v>2.6739999999999999</v>
+      <c r="M137" s="6">
+        <v>2674</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6427,8 +6441,8 @@
       <c r="L138" s="4">
         <v>9</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.597</v>
+      <c r="M138" s="6">
+        <v>1597</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6466,8 +6480,8 @@
       <c r="L139" s="4">
         <v>5</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.7150000000000001</v>
+      <c r="M139" s="6">
+        <v>1715</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6507,8 +6521,8 @@
       <c r="L140" s="4">
         <v>16</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.34</v>
+      <c r="M140" s="6">
+        <v>1340</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6546,8 +6560,8 @@
       <c r="L141" s="4">
         <v>11</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.4710000000000001</v>
+      <c r="M141" s="6">
+        <v>1471</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6587,8 +6601,8 @@
       <c r="L142" s="4">
         <v>43</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.2729999999999999</v>
+      <c r="M142" s="6">
+        <v>1273</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6626,8 +6640,8 @@
       <c r="L143" s="4">
         <v>12</v>
       </c>
-      <c r="M143" s="5">
-        <v>1.304</v>
+      <c r="M143" s="6">
+        <v>1304</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6667,8 +6681,8 @@
       <c r="L144" s="4">
         <v>46</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.0960000000000001</v>
+      <c r="M144" s="6">
+        <v>1096</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6706,8 +6720,8 @@
       <c r="L145" s="4">
         <v>13</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.1379999999999999</v>
+      <c r="M145" s="6">
+        <v>1138</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6747,7 +6761,7 @@
       <c r="L146" s="4">
         <v>35</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="7">
         <v>946</v>
       </c>
     </row>
@@ -6786,8 +6800,8 @@
       <c r="L147" s="4">
         <v>11</v>
       </c>
-      <c r="M147" s="5">
-        <v>1.05</v>
+      <c r="M147" s="6">
+        <v>1050</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6827,7 +6841,7 @@
       <c r="L148" s="4">
         <v>31</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="7">
         <v>834</v>
       </c>
     </row>
@@ -6866,7 +6880,7 @@
       <c r="L149" s="4">
         <v>17</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="7">
         <v>860</v>
       </c>
     </row>
@@ -6907,7 +6921,7 @@
       <c r="L150" s="4">
         <v>37</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="7">
         <v>832</v>
       </c>
     </row>
@@ -6946,7 +6960,7 @@
       <c r="L151" s="4">
         <v>19</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="7">
         <v>792</v>
       </c>
     </row>
@@ -6987,7 +7001,7 @@
       <c r="L152" s="4">
         <v>32</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="7">
         <v>635</v>
       </c>
     </row>
@@ -7026,7 +7040,7 @@
       <c r="L153" s="4">
         <v>8</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="7">
         <v>744</v>
       </c>
     </row>
@@ -7067,7 +7081,7 @@
       <c r="L154" s="4">
         <v>20</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="7">
         <v>537</v>
       </c>
     </row>
@@ -7106,7 +7120,7 @@
       <c r="L155" s="4">
         <v>9</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="7">
         <v>646</v>
       </c>
     </row>
@@ -7147,7 +7161,7 @@
       <c r="L156" s="4">
         <v>16</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="7">
         <v>440</v>
       </c>
     </row>
@@ -7186,7 +7200,7 @@
       <c r="L157" s="4">
         <v>3</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="7">
         <v>555</v>
       </c>
     </row>
@@ -7227,7 +7241,7 @@
       <c r="L158" s="4">
         <v>5</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="7">
         <v>596</v>
       </c>
     </row>
@@ -7266,54 +7280,54 @@
       <c r="L159" s="4">
         <v>7</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.0409999999999999</v>
+      <c r="M159" s="6">
+        <v>1041</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>2.3140000000000001</v>
-      </c>
-      <c r="D160" s="5">
-        <v>2.1779999999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>6.0369999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.1850000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>5.82</v>
-      </c>
-      <c r="H160" s="5">
-        <v>4.91</v>
-      </c>
-      <c r="I160" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="6">
+        <v>2314</v>
+      </c>
+      <c r="D160" s="6">
+        <v>2178</v>
+      </c>
+      <c r="E160" s="6">
+        <v>6037</v>
+      </c>
+      <c r="F160" s="6">
+        <v>2185</v>
+      </c>
+      <c r="G160" s="6">
+        <v>5820</v>
+      </c>
+      <c r="H160" s="6">
+        <v>4910</v>
+      </c>
+      <c r="I160" s="6">
+        <v>2550</v>
+      </c>
+      <c r="J160" s="7">
         <v>288</v>
       </c>
-      <c r="K160" s="5">
-        <v>15</v>
-      </c>
-      <c r="L160" s="5">
+      <c r="K160" s="7">
+        <v>15</v>
+      </c>
+      <c r="L160" s="7">
         <v>440</v>
       </c>
-      <c r="M160" s="5">
-        <v>26.736999999999998</v>
+      <c r="M160" s="6">
+        <v>26737</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7367,14 +7381,14 @@
       <c r="F162" s="4">
         <v>26</v>
       </c>
-      <c r="G162" s="4">
-        <v>9.2520000000000007</v>
-      </c>
-      <c r="H162" s="4">
-        <v>12.629</v>
-      </c>
-      <c r="I162" s="4">
-        <v>1.7230000000000001</v>
+      <c r="G162" s="5">
+        <v>9252</v>
+      </c>
+      <c r="H162" s="5">
+        <v>12629</v>
+      </c>
+      <c r="I162" s="5">
+        <v>1723</v>
       </c>
       <c r="J162" s="4">
         <v>21</v>
@@ -7385,8 +7399,8 @@
       <c r="L162" s="4">
         <v>331</v>
       </c>
-      <c r="M162" s="5">
-        <v>24.454999999999998</v>
+      <c r="M162" s="6">
+        <v>24455</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7406,14 +7420,14 @@
       <c r="F163" s="4">
         <v>17</v>
       </c>
-      <c r="G163" s="4">
-        <v>10.534000000000001</v>
-      </c>
-      <c r="H163" s="4">
-        <v>10.59</v>
-      </c>
-      <c r="I163" s="4">
-        <v>2.2370000000000001</v>
+      <c r="G163" s="5">
+        <v>10534</v>
+      </c>
+      <c r="H163" s="5">
+        <v>10590</v>
+      </c>
+      <c r="I163" s="5">
+        <v>2237</v>
       </c>
       <c r="J163" s="4">
         <v>23</v>
@@ -7424,8 +7438,8 @@
       <c r="L163" s="4">
         <v>126</v>
       </c>
-      <c r="M163" s="5">
-        <v>24.885000000000002</v>
+      <c r="M163" s="6">
+        <v>24885</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7447,14 +7461,14 @@
       <c r="F164" s="4">
         <v>544</v>
       </c>
-      <c r="G164" s="4">
-        <v>5.4480000000000004</v>
-      </c>
-      <c r="H164" s="4">
-        <v>4.952</v>
-      </c>
-      <c r="I164" s="4">
-        <v>4.6289999999999996</v>
+      <c r="G164" s="5">
+        <v>5448</v>
+      </c>
+      <c r="H164" s="5">
+        <v>4952</v>
+      </c>
+      <c r="I164" s="5">
+        <v>4629</v>
       </c>
       <c r="J164" s="4">
         <v>361</v>
@@ -7465,8 +7479,8 @@
       <c r="L164" s="4">
         <v>149</v>
       </c>
-      <c r="M164" s="5">
-        <v>16.651</v>
+      <c r="M164" s="6">
+        <v>16651</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7477,23 +7491,23 @@
       <c r="C165" s="4">
         <v>450</v>
       </c>
-      <c r="D165" s="4">
-        <v>1.411</v>
-      </c>
-      <c r="E165" s="4">
-        <v>1.8120000000000001</v>
+      <c r="D165" s="5">
+        <v>1411</v>
+      </c>
+      <c r="E165" s="5">
+        <v>1812</v>
       </c>
       <c r="F165" s="4">
         <v>557</v>
       </c>
-      <c r="G165" s="4">
-        <v>4.6079999999999997</v>
-      </c>
-      <c r="H165" s="4">
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="I165" s="4">
-        <v>5.0129999999999999</v>
+      <c r="G165" s="5">
+        <v>4608</v>
+      </c>
+      <c r="H165" s="5">
+        <v>3096</v>
+      </c>
+      <c r="I165" s="5">
+        <v>5013</v>
       </c>
       <c r="J165" s="4">
         <v>428</v>
@@ -7504,8 +7518,8 @@
       <c r="L165" s="4">
         <v>261</v>
       </c>
-      <c r="M165" s="5">
-        <v>17.635999999999999</v>
+      <c r="M165" s="6">
+        <v>17636</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7524,17 +7538,17 @@
       <c r="E166" s="4">
         <v>448</v>
       </c>
-      <c r="F166" s="4">
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="G166" s="4">
-        <v>2.7440000000000002</v>
-      </c>
-      <c r="H166" s="4">
-        <v>4.234</v>
-      </c>
-      <c r="I166" s="4">
-        <v>3.9049999999999998</v>
+      <c r="F166" s="5">
+        <v>2725</v>
+      </c>
+      <c r="G166" s="5">
+        <v>2744</v>
+      </c>
+      <c r="H166" s="5">
+        <v>4234</v>
+      </c>
+      <c r="I166" s="5">
+        <v>3905</v>
       </c>
       <c r="J166" s="4">
         <v>531</v>
@@ -7545,8 +7559,8 @@
       <c r="L166" s="4">
         <v>209</v>
       </c>
-      <c r="M166" s="5">
-        <v>15.28</v>
+      <c r="M166" s="6">
+        <v>15280</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7554,26 +7568,26 @@
       <c r="B167" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C167" s="4">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="D167" s="4">
-        <v>2.5640000000000001</v>
-      </c>
-      <c r="E167" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="F167" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G167" s="4">
-        <v>1.4279999999999999</v>
-      </c>
-      <c r="H167" s="4">
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="I167" s="4">
-        <v>2.669</v>
+      <c r="C167" s="5">
+        <v>1059</v>
+      </c>
+      <c r="D167" s="5">
+        <v>2564</v>
+      </c>
+      <c r="E167" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F167" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G167" s="5">
+        <v>1428</v>
+      </c>
+      <c r="H167" s="5">
+        <v>2128</v>
+      </c>
+      <c r="I167" s="5">
+        <v>2669</v>
       </c>
       <c r="J167" s="4">
         <v>411</v>
@@ -7584,8 +7598,8 @@
       <c r="L167" s="4">
         <v>403</v>
       </c>
-      <c r="M167" s="5">
-        <v>14.577999999999999</v>
+      <c r="M167" s="6">
+        <v>14578</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7604,17 +7618,17 @@
       <c r="E168" s="4">
         <v>988</v>
       </c>
-      <c r="F168" s="4">
-        <v>3.2269999999999999</v>
-      </c>
-      <c r="G168" s="4">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="H168" s="4">
-        <v>3.5569999999999999</v>
-      </c>
-      <c r="I168" s="4">
-        <v>2.2229999999999999</v>
+      <c r="F168" s="5">
+        <v>3227</v>
+      </c>
+      <c r="G168" s="5">
+        <v>1559</v>
+      </c>
+      <c r="H168" s="5">
+        <v>3557</v>
+      </c>
+      <c r="I168" s="5">
+        <v>2223</v>
       </c>
       <c r="J168" s="4">
         <v>372</v>
@@ -7625,8 +7639,8 @@
       <c r="L168" s="4">
         <v>318</v>
       </c>
-      <c r="M168" s="5">
-        <v>12.786</v>
+      <c r="M168" s="6">
+        <v>12786</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7634,26 +7648,26 @@
       <c r="B169" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C169" s="4">
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="D169" s="4">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="E169" s="4">
-        <v>3.0489999999999999</v>
-      </c>
-      <c r="F169" s="4">
-        <v>1.5640000000000001</v>
+      <c r="C169" s="5">
+        <v>1146</v>
+      </c>
+      <c r="D169" s="5">
+        <v>1733</v>
+      </c>
+      <c r="E169" s="5">
+        <v>3049</v>
+      </c>
+      <c r="F169" s="5">
+        <v>1564</v>
       </c>
       <c r="G169" s="4">
         <v>931</v>
       </c>
-      <c r="H169" s="4">
-        <v>1.901</v>
-      </c>
-      <c r="I169" s="4">
-        <v>1.222</v>
+      <c r="H169" s="5">
+        <v>1901</v>
+      </c>
+      <c r="I169" s="5">
+        <v>1222</v>
       </c>
       <c r="J169" s="4">
         <v>212</v>
@@ -7664,8 +7678,8 @@
       <c r="L169" s="4">
         <v>352</v>
       </c>
-      <c r="M169" s="5">
-        <v>12.13</v>
+      <c r="M169" s="6">
+        <v>12130</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7681,20 +7695,20 @@
       <c r="D170" s="4">
         <v>208</v>
       </c>
-      <c r="E170" s="4">
-        <v>1.5509999999999999</v>
-      </c>
-      <c r="F170" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="G170" s="4">
-        <v>1.7789999999999999</v>
-      </c>
-      <c r="H170" s="4">
-        <v>2.9740000000000002</v>
-      </c>
-      <c r="I170" s="4">
-        <v>1.4930000000000001</v>
+      <c r="E170" s="5">
+        <v>1551</v>
+      </c>
+      <c r="F170" s="5">
+        <v>2400</v>
+      </c>
+      <c r="G170" s="5">
+        <v>1779</v>
+      </c>
+      <c r="H170" s="5">
+        <v>2974</v>
+      </c>
+      <c r="I170" s="5">
+        <v>1493</v>
       </c>
       <c r="J170" s="4">
         <v>254</v>
@@ -7705,8 +7719,8 @@
       <c r="L170" s="4">
         <v>253</v>
       </c>
-      <c r="M170" s="5">
-        <v>11.069000000000001</v>
+      <c r="M170" s="6">
+        <v>11069</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7714,23 +7728,23 @@
       <c r="B171" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="4">
-        <v>1.228</v>
-      </c>
-      <c r="D171" s="4">
-        <v>1.41</v>
-      </c>
-      <c r="E171" s="4">
-        <v>3.6349999999999998</v>
+      <c r="C171" s="5">
+        <v>1228</v>
+      </c>
+      <c r="D171" s="5">
+        <v>1410</v>
+      </c>
+      <c r="E171" s="5">
+        <v>3635</v>
       </c>
       <c r="F171" s="4">
         <v>911</v>
       </c>
-      <c r="G171" s="4">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="H171" s="4">
-        <v>1.5640000000000001</v>
+      <c r="G171" s="5">
+        <v>1094</v>
+      </c>
+      <c r="H171" s="5">
+        <v>1564</v>
       </c>
       <c r="I171" s="4">
         <v>705</v>
@@ -7744,8 +7758,8 @@
       <c r="L171" s="4">
         <v>273</v>
       </c>
-      <c r="M171" s="5">
-        <v>10.976000000000001</v>
+      <c r="M171" s="6">
+        <v>10976</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7761,20 +7775,20 @@
       <c r="D172" s="4">
         <v>162</v>
       </c>
-      <c r="E172" s="4">
-        <v>1.4079999999999999</v>
-      </c>
-      <c r="F172" s="4">
-        <v>1.992</v>
-      </c>
-      <c r="G172" s="4">
-        <v>1.351</v>
-      </c>
-      <c r="H172" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="I172" s="4">
-        <v>1.0900000000000001</v>
+      <c r="E172" s="5">
+        <v>1408</v>
+      </c>
+      <c r="F172" s="5">
+        <v>1992</v>
+      </c>
+      <c r="G172" s="5">
+        <v>1351</v>
+      </c>
+      <c r="H172" s="5">
+        <v>2100</v>
+      </c>
+      <c r="I172" s="5">
+        <v>1090</v>
       </c>
       <c r="J172" s="4">
         <v>189</v>
@@ -7785,8 +7799,8 @@
       <c r="L172" s="4">
         <v>176</v>
       </c>
-      <c r="M172" s="5">
-        <v>8.5619999999999994</v>
+      <c r="M172" s="6">
+        <v>8562</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7794,14 +7808,14 @@
       <c r="B173" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="4">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="D173" s="4">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="E173" s="4">
-        <v>2.8889999999999998</v>
+      <c r="C173" s="5">
+        <v>1094</v>
+      </c>
+      <c r="D173" s="5">
+        <v>1201</v>
+      </c>
+      <c r="E173" s="5">
+        <v>2889</v>
       </c>
       <c r="F173" s="4">
         <v>660</v>
@@ -7809,8 +7823,8 @@
       <c r="G173" s="4">
         <v>840</v>
       </c>
-      <c r="H173" s="4">
-        <v>1.0249999999999999</v>
+      <c r="H173" s="5">
+        <v>1025</v>
       </c>
       <c r="I173" s="4">
         <v>407</v>
@@ -7824,8 +7838,8 @@
       <c r="L173" s="4">
         <v>216</v>
       </c>
-      <c r="M173" s="5">
-        <v>8.4060000000000006</v>
+      <c r="M173" s="6">
+        <v>8406</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7841,17 +7855,17 @@
       <c r="D174" s="4">
         <v>164</v>
       </c>
-      <c r="E174" s="4">
-        <v>1.276</v>
-      </c>
-      <c r="F174" s="4">
-        <v>1.671</v>
-      </c>
-      <c r="G174" s="4">
-        <v>1.125</v>
-      </c>
-      <c r="H174" s="4">
-        <v>1.4339999999999999</v>
+      <c r="E174" s="5">
+        <v>1276</v>
+      </c>
+      <c r="F174" s="5">
+        <v>1671</v>
+      </c>
+      <c r="G174" s="5">
+        <v>1125</v>
+      </c>
+      <c r="H174" s="5">
+        <v>1434</v>
       </c>
       <c r="I174" s="4">
         <v>698</v>
@@ -7865,8 +7879,8 @@
       <c r="L174" s="4">
         <v>147</v>
       </c>
-      <c r="M174" s="5">
-        <v>6.7350000000000003</v>
+      <c r="M174" s="6">
+        <v>6735</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7874,14 +7888,14 @@
       <c r="B175" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C175" s="4">
-        <v>1.115</v>
-      </c>
-      <c r="D175" s="4">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="E175" s="4">
-        <v>2.1890000000000001</v>
+      <c r="C175" s="5">
+        <v>1115</v>
+      </c>
+      <c r="D175" s="5">
+        <v>1183</v>
+      </c>
+      <c r="E175" s="5">
+        <v>2189</v>
       </c>
       <c r="F175" s="4">
         <v>422</v>
@@ -7904,8 +7918,8 @@
       <c r="L175" s="4">
         <v>153</v>
       </c>
-      <c r="M175" s="5">
-        <v>6.585</v>
+      <c r="M175" s="6">
+        <v>6585</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7921,17 +7935,17 @@
       <c r="D176" s="4">
         <v>169</v>
       </c>
-      <c r="E176" s="4">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="F176" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="G176" s="4">
-        <v>1.018</v>
-      </c>
-      <c r="H176" s="4">
-        <v>1.2090000000000001</v>
+      <c r="E176" s="5">
+        <v>1443</v>
+      </c>
+      <c r="F176" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G176" s="5">
+        <v>1018</v>
+      </c>
+      <c r="H176" s="5">
+        <v>1209</v>
       </c>
       <c r="I176" s="4">
         <v>432</v>
@@ -7945,8 +7959,8 @@
       <c r="L176" s="4">
         <v>127</v>
       </c>
-      <c r="M176" s="5">
-        <v>5.9009999999999998</v>
+      <c r="M176" s="6">
+        <v>5901</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7954,14 +7968,14 @@
       <c r="B177" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="4">
-        <v>1.3460000000000001</v>
-      </c>
-      <c r="D177" s="4">
-        <v>1.175</v>
-      </c>
-      <c r="E177" s="4">
-        <v>1.8680000000000001</v>
+      <c r="C177" s="5">
+        <v>1346</v>
+      </c>
+      <c r="D177" s="5">
+        <v>1175</v>
+      </c>
+      <c r="E177" s="5">
+        <v>1868</v>
       </c>
       <c r="F177" s="4">
         <v>330</v>
@@ -7984,8 +7998,8 @@
       <c r="L177" s="4">
         <v>144</v>
       </c>
-      <c r="M177" s="5">
-        <v>5.9160000000000004</v>
+      <c r="M177" s="6">
+        <v>5916</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8001,8 +8015,8 @@
       <c r="D178" s="4">
         <v>198</v>
       </c>
-      <c r="E178" s="4">
-        <v>1.071</v>
+      <c r="E178" s="5">
+        <v>1071</v>
       </c>
       <c r="F178" s="4">
         <v>672</v>
@@ -8025,8 +8039,8 @@
       <c r="L178" s="4">
         <v>89</v>
       </c>
-      <c r="M178" s="5">
-        <v>4.109</v>
+      <c r="M178" s="6">
+        <v>4109</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8034,14 +8048,14 @@
       <c r="B179" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="4">
-        <v>1.3939999999999999</v>
+      <c r="C179" s="5">
+        <v>1394</v>
       </c>
       <c r="D179" s="4">
         <v>970</v>
       </c>
-      <c r="E179" s="4">
-        <v>1.3089999999999999</v>
+      <c r="E179" s="5">
+        <v>1309</v>
       </c>
       <c r="F179" s="4">
         <v>160</v>
@@ -8064,8 +8078,8 @@
       <c r="L179" s="4">
         <v>129</v>
       </c>
-      <c r="M179" s="5">
-        <v>4.577</v>
+      <c r="M179" s="6">
+        <v>4577</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8081,8 +8095,8 @@
       <c r="D180" s="4">
         <v>237</v>
       </c>
-      <c r="E180" s="4">
-        <v>1.0089999999999999</v>
+      <c r="E180" s="5">
+        <v>1009</v>
       </c>
       <c r="F180" s="4">
         <v>356</v>
@@ -8105,8 +8119,8 @@
       <c r="L180" s="4">
         <v>47</v>
       </c>
-      <c r="M180" s="5">
-        <v>3.0939999999999999</v>
+      <c r="M180" s="6">
+        <v>3094</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8114,8 +8128,8 @@
       <c r="B181" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C181" s="4">
-        <v>1.4239999999999999</v>
+      <c r="C181" s="5">
+        <v>1424</v>
       </c>
       <c r="D181" s="4">
         <v>642</v>
@@ -8144,8 +8158,8 @@
       <c r="L181" s="4">
         <v>106</v>
       </c>
-      <c r="M181" s="5">
-        <v>3.2869999999999999</v>
+      <c r="M181" s="6">
+        <v>3287</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8185,8 +8199,8 @@
       <c r="L182" s="4">
         <v>43</v>
       </c>
-      <c r="M182" s="5">
-        <v>2.004</v>
+      <c r="M182" s="6">
+        <v>2004</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8194,8 +8208,8 @@
       <c r="B183" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="4">
-        <v>1.26</v>
+      <c r="C183" s="5">
+        <v>1260</v>
       </c>
       <c r="D183" s="4">
         <v>481</v>
@@ -8224,8 +8238,8 @@
       <c r="L183" s="4">
         <v>75</v>
       </c>
-      <c r="M183" s="5">
-        <v>2.399</v>
+      <c r="M183" s="6">
+        <v>2399</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8265,8 +8279,8 @@
       <c r="L184" s="4">
         <v>54</v>
       </c>
-      <c r="M184" s="5">
-        <v>2.0270000000000001</v>
+      <c r="M184" s="6">
+        <v>2027</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8274,8 +8288,8 @@
       <c r="B185" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="4">
-        <v>2.2170000000000001</v>
+      <c r="C185" s="5">
+        <v>2217</v>
       </c>
       <c r="D185" s="4">
         <v>513</v>
@@ -8304,54 +8318,54 @@
       <c r="L185" s="4">
         <v>182</v>
       </c>
-      <c r="M185" s="5">
-        <v>3.3580000000000001</v>
+      <c r="M185" s="6">
+        <v>3358</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>15.260999999999999</v>
-      </c>
-      <c r="D186" s="5">
-        <v>16.984000000000002</v>
-      </c>
-      <c r="E186" s="5">
-        <v>31.524999999999999</v>
-      </c>
-      <c r="F186" s="5">
-        <v>22.286000000000001</v>
-      </c>
-      <c r="G186" s="5">
-        <v>46.642000000000003</v>
-      </c>
-      <c r="H186" s="5">
-        <v>56.942999999999998</v>
-      </c>
-      <c r="I186" s="5">
-        <v>29.794</v>
-      </c>
-      <c r="J186" s="5">
-        <v>3.2010000000000001</v>
-      </c>
-      <c r="K186" s="5">
+      <c r="B186" s="8"/>
+      <c r="C186" s="6">
+        <v>15261</v>
+      </c>
+      <c r="D186" s="6">
+        <v>16984</v>
+      </c>
+      <c r="E186" s="6">
+        <v>31525</v>
+      </c>
+      <c r="F186" s="6">
+        <v>22286</v>
+      </c>
+      <c r="G186" s="6">
+        <v>46642</v>
+      </c>
+      <c r="H186" s="6">
+        <v>56943</v>
+      </c>
+      <c r="I186" s="6">
+        <v>29794</v>
+      </c>
+      <c r="J186" s="6">
+        <v>3201</v>
+      </c>
+      <c r="K186" s="7">
         <v>407</v>
       </c>
-      <c r="L186" s="5">
-        <v>4.3630000000000004</v>
-      </c>
-      <c r="M186" s="5">
-        <v>227.40600000000001</v>
+      <c r="L186" s="6">
+        <v>4363</v>
+      </c>
+      <c r="M186" s="6">
+        <v>227406</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8405,11 +8419,11 @@
       <c r="F188" s="4">
         <v>3</v>
       </c>
-      <c r="G188" s="4">
-        <v>3.1549999999999998</v>
-      </c>
-      <c r="H188" s="4">
-        <v>2.3260000000000001</v>
+      <c r="G188" s="5">
+        <v>3155</v>
+      </c>
+      <c r="H188" s="5">
+        <v>2326</v>
       </c>
       <c r="I188" s="4">
         <v>281</v>
@@ -8423,8 +8437,8 @@
       <c r="L188" s="4">
         <v>127</v>
       </c>
-      <c r="M188" s="5">
-        <v>6.1459999999999999</v>
+      <c r="M188" s="6">
+        <v>6146</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8444,8 +8458,8 @@
       <c r="F189" s="4">
         <v>4</v>
       </c>
-      <c r="G189" s="4">
-        <v>3.7949999999999999</v>
+      <c r="G189" s="5">
+        <v>3795</v>
       </c>
       <c r="H189" s="4">
         <v>980</v>
@@ -8462,8 +8476,8 @@
       <c r="L189" s="4">
         <v>24</v>
       </c>
-      <c r="M189" s="5">
-        <v>5.8079999999999998</v>
+      <c r="M189" s="6">
+        <v>5808</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8485,8 +8499,8 @@
       <c r="F190" s="4">
         <v>113</v>
       </c>
-      <c r="G190" s="4">
-        <v>1.3879999999999999</v>
+      <c r="G190" s="5">
+        <v>1388</v>
       </c>
       <c r="H190" s="4">
         <v>882</v>
@@ -8503,8 +8517,8 @@
       <c r="L190" s="4">
         <v>22</v>
       </c>
-      <c r="M190" s="5">
-        <v>3.29</v>
+      <c r="M190" s="6">
+        <v>3290</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8524,8 +8538,8 @@
       <c r="F191" s="4">
         <v>174</v>
       </c>
-      <c r="G191" s="4">
-        <v>1.1319999999999999</v>
+      <c r="G191" s="5">
+        <v>1132</v>
       </c>
       <c r="H191" s="4">
         <v>230</v>
@@ -8542,8 +8556,8 @@
       <c r="L191" s="4">
         <v>26</v>
       </c>
-      <c r="M191" s="5">
-        <v>3.54</v>
+      <c r="M191" s="6">
+        <v>3540</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8583,8 +8597,8 @@
       <c r="L192" s="4">
         <v>5</v>
       </c>
-      <c r="M192" s="5">
-        <v>2.6110000000000002</v>
+      <c r="M192" s="6">
+        <v>2611</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8622,8 +8636,8 @@
       <c r="L193" s="4">
         <v>20</v>
       </c>
-      <c r="M193" s="5">
-        <v>2.548</v>
+      <c r="M193" s="6">
+        <v>2548</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8663,8 +8677,8 @@
       <c r="L194" s="4">
         <v>5</v>
       </c>
-      <c r="M194" s="5">
-        <v>2.1930000000000001</v>
+      <c r="M194" s="6">
+        <v>2193</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8702,8 +8716,8 @@
       <c r="L195" s="4">
         <v>13</v>
       </c>
-      <c r="M195" s="5">
-        <v>2.2130000000000001</v>
+      <c r="M195" s="6">
+        <v>2213</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8743,8 +8757,8 @@
       <c r="L196" s="4">
         <v>6</v>
       </c>
-      <c r="M196" s="5">
-        <v>1.952</v>
+      <c r="M196" s="6">
+        <v>1952</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8782,8 +8796,8 @@
       <c r="L197" s="4">
         <v>26</v>
       </c>
-      <c r="M197" s="5">
-        <v>2.0390000000000001</v>
+      <c r="M197" s="6">
+        <v>2039</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8823,8 +8837,8 @@
       <c r="L198" s="4">
         <v>1</v>
       </c>
-      <c r="M198" s="5">
-        <v>1.379</v>
+      <c r="M198" s="6">
+        <v>1379</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8862,8 +8876,8 @@
       <c r="L199" s="4">
         <v>41</v>
       </c>
-      <c r="M199" s="5">
-        <v>1.4330000000000001</v>
+      <c r="M199" s="6">
+        <v>1433</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8903,8 +8917,8 @@
       <c r="L200" s="4">
         <v>4</v>
       </c>
-      <c r="M200" s="5">
-        <v>1.1990000000000001</v>
+      <c r="M200" s="6">
+        <v>1199</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8942,8 +8956,8 @@
       <c r="L201" s="4">
         <v>30</v>
       </c>
-      <c r="M201" s="5">
-        <v>1.1120000000000001</v>
+      <c r="M201" s="6">
+        <v>1112</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8983,8 +8997,8 @@
       <c r="L202" s="4">
         <v>2</v>
       </c>
-      <c r="M202" s="5">
-        <v>1.0720000000000001</v>
+      <c r="M202" s="6">
+        <v>1072</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9022,8 +9036,8 @@
       <c r="L203" s="4">
         <v>29</v>
       </c>
-      <c r="M203" s="5">
-        <v>1.075</v>
+      <c r="M203" s="6">
+        <v>1075</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9063,7 +9077,7 @@
       <c r="L204" s="4">
         <v>3</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="7">
         <v>565</v>
       </c>
     </row>
@@ -9102,7 +9116,7 @@
       <c r="L205" s="4">
         <v>12</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="7">
         <v>721</v>
       </c>
     </row>
@@ -9143,7 +9157,7 @@
       <c r="L206" s="4">
         <v>3</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="7">
         <v>575</v>
       </c>
     </row>
@@ -9182,7 +9196,7 @@
       <c r="L207" s="4">
         <v>10</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="7">
         <v>544</v>
       </c>
     </row>
@@ -9223,7 +9237,7 @@
       <c r="L208" s="4">
         <v>2</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="7">
         <v>279</v>
       </c>
     </row>
@@ -9262,7 +9276,7 @@
       <c r="L209" s="4">
         <v>10</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="7">
         <v>452</v>
       </c>
     </row>
@@ -9303,7 +9317,7 @@
       <c r="L210" s="4">
         <v>1</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="7">
         <v>290</v>
       </c>
     </row>
@@ -9342,7 +9356,7 @@
       <c r="L211" s="4">
         <v>23</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="7">
         <v>599</v>
       </c>
     </row>
@@ -9350,46 +9364,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>5.0519999999999996</v>
-      </c>
-      <c r="D212" s="5">
-        <v>4.8019999999999996</v>
-      </c>
-      <c r="E212" s="5">
-        <v>6.76</v>
-      </c>
-      <c r="F212" s="5">
-        <v>3.7240000000000002</v>
-      </c>
-      <c r="G212" s="5">
-        <v>13.076000000000001</v>
-      </c>
-      <c r="H212" s="5">
-        <v>7.093</v>
-      </c>
-      <c r="I212" s="5">
-        <v>2.423</v>
-      </c>
-      <c r="J212" s="5">
+      <c r="B212" s="8"/>
+      <c r="C212" s="6">
+        <v>5052</v>
+      </c>
+      <c r="D212" s="6">
+        <v>4802</v>
+      </c>
+      <c r="E212" s="6">
+        <v>6760</v>
+      </c>
+      <c r="F212" s="6">
+        <v>3724</v>
+      </c>
+      <c r="G212" s="6">
+        <v>13076</v>
+      </c>
+      <c r="H212" s="6">
+        <v>7093</v>
+      </c>
+      <c r="I212" s="6">
+        <v>2423</v>
+      </c>
+      <c r="J212" s="7">
         <v>249</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="7">
         <v>11</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="7">
         <v>445</v>
       </c>
-      <c r="M212" s="5">
-        <v>43.634999999999998</v>
+      <c r="M212" s="6">
+        <v>43635</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9443,11 +9457,11 @@
       <c r="F214" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G214" s="4">
-        <v>1.3109999999999999</v>
-      </c>
-      <c r="H214" s="4">
-        <v>1.5269999999999999</v>
+      <c r="G214" s="5">
+        <v>1311</v>
+      </c>
+      <c r="H214" s="5">
+        <v>1527</v>
       </c>
       <c r="I214" s="4">
         <v>219</v>
@@ -9461,8 +9475,8 @@
       <c r="L214" s="4">
         <v>36</v>
       </c>
-      <c r="M214" s="5">
-        <v>3.218</v>
+      <c r="M214" s="6">
+        <v>3218</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9482,11 +9496,11 @@
       <c r="F215" s="4">
         <v>2</v>
       </c>
-      <c r="G215" s="4">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="H215" s="4">
-        <v>1.468</v>
+      <c r="G215" s="5">
+        <v>1136</v>
+      </c>
+      <c r="H215" s="5">
+        <v>1468</v>
       </c>
       <c r="I215" s="4">
         <v>330</v>
@@ -9500,8 +9514,8 @@
       <c r="L215" s="4">
         <v>4</v>
       </c>
-      <c r="M215" s="5">
-        <v>3.081</v>
+      <c r="M215" s="6">
+        <v>3081</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9541,8 +9555,8 @@
       <c r="L216" s="4">
         <v>11</v>
       </c>
-      <c r="M216" s="5">
-        <v>1.992</v>
+      <c r="M216" s="6">
+        <v>1992</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9580,8 +9594,8 @@
       <c r="L217" s="4">
         <v>6</v>
       </c>
-      <c r="M217" s="5">
-        <v>1.821</v>
+      <c r="M217" s="6">
+        <v>1821</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9621,8 +9635,8 @@
       <c r="L218" s="4">
         <v>5</v>
       </c>
-      <c r="M218" s="5">
-        <v>1.5840000000000001</v>
+      <c r="M218" s="6">
+        <v>1584</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9660,8 +9674,8 @@
       <c r="L219" s="4">
         <v>4</v>
       </c>
-      <c r="M219" s="5">
-        <v>1.4279999999999999</v>
+      <c r="M219" s="6">
+        <v>1428</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9701,8 +9715,8 @@
       <c r="L220" s="4">
         <v>6</v>
       </c>
-      <c r="M220" s="5">
-        <v>1.161</v>
+      <c r="M220" s="6">
+        <v>1161</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9740,8 +9754,8 @@
       <c r="L221" s="4">
         <v>6</v>
       </c>
-      <c r="M221" s="5">
-        <v>1.107</v>
+      <c r="M221" s="6">
+        <v>1107</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9781,8 +9795,8 @@
       <c r="L222" s="4">
         <v>1</v>
       </c>
-      <c r="M222" s="5">
-        <v>1.1259999999999999</v>
+      <c r="M222" s="6">
+        <v>1126</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9820,8 +9834,8 @@
       <c r="L223" s="4">
         <v>5</v>
       </c>
-      <c r="M223" s="5">
-        <v>1.1499999999999999</v>
+      <c r="M223" s="6">
+        <v>1150</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9861,8 +9875,8 @@
       <c r="L224" s="4">
         <v>7</v>
       </c>
-      <c r="M224" s="5">
-        <v>1.0009999999999999</v>
+      <c r="M224" s="6">
+        <v>1001</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9900,7 +9914,7 @@
       <c r="L225" s="4">
         <v>5</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="7">
         <v>940</v>
       </c>
     </row>
@@ -9941,7 +9955,7 @@
       <c r="L226" s="4">
         <v>2</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="7">
         <v>790</v>
       </c>
     </row>
@@ -9980,7 +9994,7 @@
       <c r="L227" s="4">
         <v>2</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="7">
         <v>799</v>
       </c>
     </row>
@@ -10021,7 +10035,7 @@
       <c r="L228" s="4">
         <v>3</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="7">
         <v>828</v>
       </c>
     </row>
@@ -10060,7 +10074,7 @@
       <c r="L229" s="4">
         <v>6</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="7">
         <v>777</v>
       </c>
     </row>
@@ -10101,7 +10115,7 @@
       <c r="L230" s="4">
         <v>2</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="7">
         <v>578</v>
       </c>
     </row>
@@ -10140,7 +10154,7 @@
       <c r="L231" s="4">
         <v>5</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="7">
         <v>625</v>
       </c>
     </row>
@@ -10181,7 +10195,7 @@
       <c r="L232" s="4">
         <v>4</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="7">
         <v>400</v>
       </c>
     </row>
@@ -10220,7 +10234,7 @@
       <c r="L233" s="4">
         <v>3</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="7">
         <v>400</v>
       </c>
     </row>
@@ -10261,7 +10275,7 @@
       <c r="L234" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="7">
         <v>292</v>
       </c>
     </row>
@@ -10300,7 +10314,7 @@
       <c r="L235" s="4">
         <v>2</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="7">
         <v>378</v>
       </c>
     </row>
@@ -10341,7 +10355,7 @@
       <c r="L236" s="4">
         <v>2</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="7">
         <v>333</v>
       </c>
     </row>
@@ -10380,7 +10394,7 @@
       <c r="L237" s="4">
         <v>10</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="7">
         <v>643</v>
       </c>
     </row>
@@ -10388,46 +10402,46 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>2.3250000000000002</v>
-      </c>
-      <c r="D238" s="5">
-        <v>2.141</v>
-      </c>
-      <c r="E238" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.7869999999999999</v>
-      </c>
-      <c r="G238" s="5">
-        <v>6.2460000000000004</v>
-      </c>
-      <c r="H238" s="5">
-        <v>6.88</v>
-      </c>
-      <c r="I238" s="5">
-        <v>2.8889999999999998</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="B238" s="8"/>
+      <c r="C238" s="6">
+        <v>2325</v>
+      </c>
+      <c r="D238" s="6">
+        <v>2141</v>
+      </c>
+      <c r="E238" s="6">
+        <v>3750</v>
+      </c>
+      <c r="F238" s="6">
+        <v>1787</v>
+      </c>
+      <c r="G238" s="6">
+        <v>6246</v>
+      </c>
+      <c r="H238" s="6">
+        <v>6880</v>
+      </c>
+      <c r="I238" s="6">
+        <v>2889</v>
+      </c>
+      <c r="J238" s="7">
         <v>282</v>
       </c>
-      <c r="K238" s="5">
-        <v>15</v>
-      </c>
-      <c r="L238" s="5">
+      <c r="K238" s="7">
+        <v>15</v>
+      </c>
+      <c r="L238" s="7">
         <v>137</v>
       </c>
-      <c r="M238" s="5">
-        <v>26.452000000000002</v>
+      <c r="M238" s="6">
+        <v>26452</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10481,14 +10495,14 @@
       <c r="F240" s="4">
         <v>1</v>
       </c>
-      <c r="G240" s="4">
-        <v>3.4279999999999999</v>
-      </c>
-      <c r="H240" s="4">
-        <v>9.3119999999999994</v>
-      </c>
-      <c r="I240" s="4">
-        <v>1.5109999999999999</v>
+      <c r="G240" s="5">
+        <v>3428</v>
+      </c>
+      <c r="H240" s="5">
+        <v>9312</v>
+      </c>
+      <c r="I240" s="5">
+        <v>1511</v>
       </c>
       <c r="J240" s="4">
         <v>33</v>
@@ -10499,8 +10513,8 @@
       <c r="L240" s="4">
         <v>107</v>
       </c>
-      <c r="M240" s="5">
-        <v>14.5</v>
+      <c r="M240" s="6">
+        <v>14500</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10520,14 +10534,14 @@
       <c r="F241" s="4">
         <v>4</v>
       </c>
-      <c r="G241" s="4">
-        <v>3.5720000000000001</v>
-      </c>
-      <c r="H241" s="4">
-        <v>9.1509999999999998</v>
-      </c>
-      <c r="I241" s="4">
-        <v>2.2170000000000001</v>
+      <c r="G241" s="5">
+        <v>3572</v>
+      </c>
+      <c r="H241" s="5">
+        <v>9151</v>
+      </c>
+      <c r="I241" s="5">
+        <v>2217</v>
       </c>
       <c r="J241" s="4">
         <v>40</v>
@@ -10538,8 +10552,8 @@
       <c r="L241" s="4">
         <v>31</v>
       </c>
-      <c r="M241" s="5">
-        <v>15.222</v>
+      <c r="M241" s="6">
+        <v>15222</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10561,14 +10575,14 @@
       <c r="F242" s="4">
         <v>106</v>
       </c>
-      <c r="G242" s="4">
-        <v>1.617</v>
-      </c>
-      <c r="H242" s="4">
-        <v>3.2320000000000002</v>
-      </c>
-      <c r="I242" s="4">
-        <v>4.4480000000000004</v>
+      <c r="G242" s="5">
+        <v>1617</v>
+      </c>
+      <c r="H242" s="5">
+        <v>3232</v>
+      </c>
+      <c r="I242" s="5">
+        <v>4448</v>
       </c>
       <c r="J242" s="4">
         <v>474</v>
@@ -10579,8 +10593,8 @@
       <c r="L242" s="4">
         <v>36</v>
       </c>
-      <c r="M242" s="5">
-        <v>10.037000000000001</v>
+      <c r="M242" s="6">
+        <v>10037</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10600,14 +10614,14 @@
       <c r="F243" s="4">
         <v>183</v>
       </c>
-      <c r="G243" s="4">
-        <v>2.032</v>
-      </c>
-      <c r="H243" s="4">
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="I243" s="4">
-        <v>6.16</v>
+      <c r="G243" s="5">
+        <v>2032</v>
+      </c>
+      <c r="H243" s="5">
+        <v>3005</v>
+      </c>
+      <c r="I243" s="5">
+        <v>6160</v>
       </c>
       <c r="J243" s="4">
         <v>637</v>
@@ -10618,8 +10632,8 @@
       <c r="L243" s="4">
         <v>76</v>
       </c>
-      <c r="M243" s="5">
-        <v>12.949</v>
+      <c r="M243" s="6">
+        <v>12949</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10644,14 +10658,14 @@
       <c r="G244" s="4">
         <v>976</v>
       </c>
-      <c r="H244" s="4">
-        <v>2.5640000000000001</v>
-      </c>
-      <c r="I244" s="4">
-        <v>5.9939999999999998</v>
-      </c>
-      <c r="J244" s="4">
-        <v>1.008</v>
+      <c r="H244" s="5">
+        <v>2564</v>
+      </c>
+      <c r="I244" s="5">
+        <v>5994</v>
+      </c>
+      <c r="J244" s="5">
+        <v>1008</v>
       </c>
       <c r="K244" s="4">
         <v>34</v>
@@ -10659,8 +10673,8 @@
       <c r="L244" s="4">
         <v>55</v>
       </c>
-      <c r="M244" s="5">
-        <v>11.606</v>
+      <c r="M244" s="6">
+        <v>11606</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10677,17 +10691,17 @@
       <c r="E245" s="4">
         <v>595</v>
       </c>
-      <c r="F245" s="4">
-        <v>1.319</v>
-      </c>
-      <c r="G245" s="4">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="H245" s="4">
-        <v>2.3889999999999998</v>
-      </c>
-      <c r="I245" s="4">
-        <v>5.4820000000000002</v>
+      <c r="F245" s="5">
+        <v>1319</v>
+      </c>
+      <c r="G245" s="5">
+        <v>1057</v>
+      </c>
+      <c r="H245" s="5">
+        <v>2389</v>
+      </c>
+      <c r="I245" s="5">
+        <v>5482</v>
       </c>
       <c r="J245" s="4">
         <v>755</v>
@@ -10698,8 +10712,8 @@
       <c r="L245" s="4">
         <v>110</v>
       </c>
-      <c r="M245" s="5">
-        <v>12.702999999999999</v>
+      <c r="M245" s="6">
+        <v>12703</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10718,17 +10732,17 @@
       <c r="E246" s="4">
         <v>392</v>
       </c>
-      <c r="F246" s="4">
-        <v>1.026</v>
+      <c r="F246" s="5">
+        <v>1026</v>
       </c>
       <c r="G246" s="4">
         <v>859</v>
       </c>
-      <c r="H246" s="4">
-        <v>2.61</v>
-      </c>
-      <c r="I246" s="4">
-        <v>4.2080000000000002</v>
+      <c r="H246" s="5">
+        <v>2610</v>
+      </c>
+      <c r="I246" s="5">
+        <v>4208</v>
       </c>
       <c r="J246" s="4">
         <v>986</v>
@@ -10739,8 +10753,8 @@
       <c r="L246" s="4">
         <v>84</v>
       </c>
-      <c r="M246" s="5">
-        <v>10.41</v>
+      <c r="M246" s="6">
+        <v>10410</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10754,20 +10768,20 @@
       <c r="D247" s="4">
         <v>577</v>
       </c>
-      <c r="E247" s="4">
-        <v>1.8819999999999999</v>
-      </c>
-      <c r="F247" s="4">
-        <v>1.079</v>
+      <c r="E247" s="5">
+        <v>1882</v>
+      </c>
+      <c r="F247" s="5">
+        <v>1079</v>
       </c>
       <c r="G247" s="4">
         <v>920</v>
       </c>
-      <c r="H247" s="4">
-        <v>2.2509999999999999</v>
-      </c>
-      <c r="I247" s="4">
-        <v>2.7730000000000001</v>
+      <c r="H247" s="5">
+        <v>2251</v>
+      </c>
+      <c r="I247" s="5">
+        <v>2773</v>
       </c>
       <c r="J247" s="4">
         <v>437</v>
@@ -10778,8 +10792,8 @@
       <c r="L247" s="4">
         <v>115</v>
       </c>
-      <c r="M247" s="5">
-        <v>10.348000000000001</v>
+      <c r="M247" s="6">
+        <v>10348</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10801,14 +10815,14 @@
       <c r="F248" s="4">
         <v>906</v>
       </c>
-      <c r="G248" s="4">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="H248" s="4">
-        <v>2.6619999999999999</v>
-      </c>
-      <c r="I248" s="4">
-        <v>2.8460000000000001</v>
+      <c r="G248" s="5">
+        <v>1072</v>
+      </c>
+      <c r="H248" s="5">
+        <v>2662</v>
+      </c>
+      <c r="I248" s="5">
+        <v>2846</v>
       </c>
       <c r="J248" s="4">
         <v>763</v>
@@ -10819,8 +10833,8 @@
       <c r="L248" s="4">
         <v>79</v>
       </c>
-      <c r="M248" s="5">
-        <v>9.2910000000000004</v>
+      <c r="M248" s="6">
+        <v>9291</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10834,20 +10848,20 @@
       <c r="D249" s="4">
         <v>486</v>
       </c>
-      <c r="E249" s="4">
-        <v>2.3149999999999999</v>
+      <c r="E249" s="5">
+        <v>2315</v>
       </c>
       <c r="F249" s="4">
         <v>662</v>
       </c>
-      <c r="G249" s="4">
-        <v>1.117</v>
-      </c>
-      <c r="H249" s="4">
-        <v>1.8129999999999999</v>
-      </c>
-      <c r="I249" s="4">
-        <v>1.6579999999999999</v>
+      <c r="G249" s="5">
+        <v>1117</v>
+      </c>
+      <c r="H249" s="5">
+        <v>1813</v>
+      </c>
+      <c r="I249" s="5">
+        <v>1658</v>
       </c>
       <c r="J249" s="4">
         <v>299</v>
@@ -10858,8 +10872,8 @@
       <c r="L249" s="4">
         <v>104</v>
       </c>
-      <c r="M249" s="5">
-        <v>8.8469999999999995</v>
+      <c r="M249" s="6">
+        <v>8847</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10884,11 +10898,11 @@
       <c r="G250" s="4">
         <v>852</v>
       </c>
-      <c r="H250" s="4">
-        <v>1.905</v>
-      </c>
-      <c r="I250" s="4">
-        <v>2.0019999999999998</v>
+      <c r="H250" s="5">
+        <v>1905</v>
+      </c>
+      <c r="I250" s="5">
+        <v>2002</v>
       </c>
       <c r="J250" s="4">
         <v>372</v>
@@ -10899,8 +10913,8 @@
       <c r="L250" s="4">
         <v>58</v>
       </c>
-      <c r="M250" s="5">
-        <v>7.016</v>
+      <c r="M250" s="6">
+        <v>7016</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10914,8 +10928,8 @@
       <c r="D251" s="4">
         <v>461</v>
       </c>
-      <c r="E251" s="4">
-        <v>2.133</v>
+      <c r="E251" s="5">
+        <v>2133</v>
       </c>
       <c r="F251" s="4">
         <v>584</v>
@@ -10923,8 +10937,8 @@
       <c r="G251" s="4">
         <v>797</v>
       </c>
-      <c r="H251" s="4">
-        <v>1.218</v>
+      <c r="H251" s="5">
+        <v>1218</v>
       </c>
       <c r="I251" s="4">
         <v>801</v>
@@ -10938,8 +10952,8 @@
       <c r="L251" s="4">
         <v>68</v>
       </c>
-      <c r="M251" s="5">
-        <v>6.5190000000000001</v>
+      <c r="M251" s="6">
+        <v>6519</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10964,11 +10978,11 @@
       <c r="G252" s="4">
         <v>851</v>
       </c>
-      <c r="H252" s="4">
-        <v>1.256</v>
-      </c>
-      <c r="I252" s="4">
-        <v>1.244</v>
+      <c r="H252" s="5">
+        <v>1256</v>
+      </c>
+      <c r="I252" s="5">
+        <v>1244</v>
       </c>
       <c r="J252" s="4">
         <v>196</v>
@@ -10979,8 +10993,8 @@
       <c r="L252" s="4">
         <v>47</v>
       </c>
-      <c r="M252" s="5">
-        <v>5.266</v>
+      <c r="M252" s="6">
+        <v>5266</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -10994,8 +11008,8 @@
       <c r="D253" s="4">
         <v>528</v>
       </c>
-      <c r="E253" s="4">
-        <v>1.728</v>
+      <c r="E253" s="5">
+        <v>1728</v>
       </c>
       <c r="F253" s="4">
         <v>452</v>
@@ -11018,8 +11032,8 @@
       <c r="L253" s="4">
         <v>46</v>
       </c>
-      <c r="M253" s="5">
-        <v>4.8280000000000003</v>
+      <c r="M253" s="6">
+        <v>4828</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11044,8 +11058,8 @@
       <c r="G254" s="4">
         <v>763</v>
       </c>
-      <c r="H254" s="4">
-        <v>1.248</v>
+      <c r="H254" s="5">
+        <v>1248</v>
       </c>
       <c r="I254" s="4">
         <v>689</v>
@@ -11059,8 +11073,8 @@
       <c r="L254" s="4">
         <v>40</v>
       </c>
-      <c r="M254" s="5">
-        <v>4.5810000000000004</v>
+      <c r="M254" s="6">
+        <v>4581</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11074,8 +11088,8 @@
       <c r="D255" s="4">
         <v>626</v>
       </c>
-      <c r="E255" s="4">
-        <v>1.5629999999999999</v>
+      <c r="E255" s="5">
+        <v>1563</v>
       </c>
       <c r="F255" s="4">
         <v>301</v>
@@ -11098,8 +11112,8 @@
       <c r="L255" s="4">
         <v>45</v>
       </c>
-      <c r="M255" s="5">
-        <v>4.1989999999999998</v>
+      <c r="M255" s="6">
+        <v>4199</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11139,8 +11153,8 @@
       <c r="L256" s="4">
         <v>35</v>
       </c>
-      <c r="M256" s="5">
-        <v>3.2559999999999998</v>
+      <c r="M256" s="6">
+        <v>3256</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11154,8 +11168,8 @@
       <c r="D257" s="4">
         <v>559</v>
       </c>
-      <c r="E257" s="4">
-        <v>1.1499999999999999</v>
+      <c r="E257" s="5">
+        <v>1150</v>
       </c>
       <c r="F257" s="4">
         <v>160</v>
@@ -11178,8 +11192,8 @@
       <c r="L257" s="4">
         <v>40</v>
       </c>
-      <c r="M257" s="5">
-        <v>3.1749999999999998</v>
+      <c r="M257" s="6">
+        <v>3175</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11219,8 +11233,8 @@
       <c r="L258" s="4">
         <v>19</v>
       </c>
-      <c r="M258" s="5">
-        <v>2.262</v>
+      <c r="M258" s="6">
+        <v>2262</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11258,8 +11272,8 @@
       <c r="L259" s="4">
         <v>33</v>
       </c>
-      <c r="M259" s="5">
-        <v>2.0590000000000002</v>
+      <c r="M259" s="6">
+        <v>2059</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11299,8 +11313,8 @@
       <c r="L260" s="4">
         <v>25</v>
       </c>
-      <c r="M260" s="5">
-        <v>1.492</v>
+      <c r="M260" s="6">
+        <v>1492</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11338,8 +11352,8 @@
       <c r="L261" s="4">
         <v>39</v>
       </c>
-      <c r="M261" s="5">
-        <v>1.458</v>
+      <c r="M261" s="6">
+        <v>1458</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11379,8 +11393,8 @@
       <c r="L262" s="4">
         <v>36</v>
       </c>
-      <c r="M262" s="5">
-        <v>1.3</v>
+      <c r="M262" s="6">
+        <v>1300</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11388,8 +11402,8 @@
       <c r="B263" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="4">
-        <v>1.2230000000000001</v>
+      <c r="C263" s="5">
+        <v>1223</v>
       </c>
       <c r="D263" s="4">
         <v>337</v>
@@ -11418,54 +11432,54 @@
       <c r="L263" s="4">
         <v>62</v>
       </c>
-      <c r="M263" s="5">
-        <v>1.9850000000000001</v>
+      <c r="M263" s="6">
+        <v>1985</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>5.8579999999999997</v>
-      </c>
-      <c r="D264" s="5">
-        <v>6.5289999999999999</v>
-      </c>
-      <c r="E264" s="5">
-        <v>19.608000000000001</v>
-      </c>
-      <c r="F264" s="5">
-        <v>10.481999999999999</v>
-      </c>
-      <c r="G264" s="5">
-        <v>22.283999999999999</v>
-      </c>
-      <c r="H264" s="5">
-        <v>48.137</v>
-      </c>
-      <c r="I264" s="5">
-        <v>43.878</v>
-      </c>
-      <c r="J264" s="5">
-        <v>6.3330000000000002</v>
-      </c>
-      <c r="K264" s="5">
+      <c r="B264" s="8"/>
+      <c r="C264" s="6">
+        <v>5858</v>
+      </c>
+      <c r="D264" s="6">
+        <v>6529</v>
+      </c>
+      <c r="E264" s="6">
+        <v>19608</v>
+      </c>
+      <c r="F264" s="6">
+        <v>10482</v>
+      </c>
+      <c r="G264" s="6">
+        <v>22284</v>
+      </c>
+      <c r="H264" s="6">
+        <v>48137</v>
+      </c>
+      <c r="I264" s="6">
+        <v>43878</v>
+      </c>
+      <c r="J264" s="6">
+        <v>6333</v>
+      </c>
+      <c r="K264" s="7">
         <v>810</v>
       </c>
-      <c r="L264" s="5">
-        <v>1.39</v>
-      </c>
-      <c r="M264" s="5">
-        <v>165.309</v>
+      <c r="L264" s="6">
+        <v>1390</v>
+      </c>
+      <c r="M264" s="6">
+        <v>165309</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11519,11 +11533,11 @@
       <c r="F266" s="4">
         <v>8</v>
       </c>
-      <c r="G266" s="4">
-        <v>9.59</v>
-      </c>
-      <c r="H266" s="4">
-        <v>7.3079999999999998</v>
+      <c r="G266" s="5">
+        <v>9590</v>
+      </c>
+      <c r="H266" s="5">
+        <v>7308</v>
       </c>
       <c r="I266" s="4">
         <v>778</v>
@@ -11537,8 +11551,8 @@
       <c r="L266" s="4">
         <v>226</v>
       </c>
-      <c r="M266" s="5">
-        <v>18.849</v>
+      <c r="M266" s="6">
+        <v>18849</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11558,14 +11572,14 @@
       <c r="F267" s="4">
         <v>6</v>
       </c>
-      <c r="G267" s="4">
-        <v>8.3670000000000009</v>
-      </c>
-      <c r="H267" s="4">
-        <v>7.6139999999999999</v>
-      </c>
-      <c r="I267" s="4">
-        <v>1.2989999999999999</v>
+      <c r="G267" s="5">
+        <v>8367</v>
+      </c>
+      <c r="H267" s="5">
+        <v>7614</v>
+      </c>
+      <c r="I267" s="5">
+        <v>1299</v>
       </c>
       <c r="J267" s="4">
         <v>9</v>
@@ -11576,8 +11590,8 @@
       <c r="L267" s="4">
         <v>57</v>
       </c>
-      <c r="M267" s="5">
-        <v>18.795999999999999</v>
+      <c r="M267" s="6">
+        <v>18796</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11599,14 +11613,14 @@
       <c r="F268" s="4">
         <v>224</v>
       </c>
-      <c r="G268" s="4">
-        <v>4.5780000000000003</v>
-      </c>
-      <c r="H268" s="4">
-        <v>2.762</v>
-      </c>
-      <c r="I268" s="4">
-        <v>2.3679999999999999</v>
+      <c r="G268" s="5">
+        <v>4578</v>
+      </c>
+      <c r="H268" s="5">
+        <v>2762</v>
+      </c>
+      <c r="I268" s="5">
+        <v>2368</v>
       </c>
       <c r="J268" s="4">
         <v>203</v>
@@ -11617,8 +11631,8 @@
       <c r="L268" s="4">
         <v>27</v>
       </c>
-      <c r="M268" s="5">
-        <v>11.294</v>
+      <c r="M268" s="6">
+        <v>11294</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11629,8 +11643,8 @@
       <c r="C269" s="4">
         <v>550</v>
       </c>
-      <c r="D269" s="4">
-        <v>1.46</v>
+      <c r="D269" s="5">
+        <v>1460</v>
       </c>
       <c r="E269" s="4">
         <v>977</v>
@@ -11638,14 +11652,14 @@
       <c r="F269" s="4">
         <v>322</v>
       </c>
-      <c r="G269" s="4">
-        <v>3.1589999999999998</v>
-      </c>
-      <c r="H269" s="4">
-        <v>1.764</v>
-      </c>
-      <c r="I269" s="4">
-        <v>2.9929999999999999</v>
+      <c r="G269" s="5">
+        <v>3159</v>
+      </c>
+      <c r="H269" s="5">
+        <v>1764</v>
+      </c>
+      <c r="I269" s="5">
+        <v>2993</v>
       </c>
       <c r="J269" s="4">
         <v>228</v>
@@ -11656,8 +11670,8 @@
       <c r="L269" s="4">
         <v>24</v>
       </c>
-      <c r="M269" s="5">
-        <v>11.477</v>
+      <c r="M269" s="6">
+        <v>11477</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11676,17 +11690,17 @@
       <c r="E270" s="4">
         <v>592</v>
       </c>
-      <c r="F270" s="4">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="G270" s="4">
-        <v>1.8380000000000001</v>
-      </c>
-      <c r="H270" s="4">
-        <v>2.0009999999999999</v>
-      </c>
-      <c r="I270" s="4">
-        <v>2.0739999999999998</v>
+      <c r="F270" s="5">
+        <v>1876</v>
+      </c>
+      <c r="G270" s="5">
+        <v>1838</v>
+      </c>
+      <c r="H270" s="5">
+        <v>2001</v>
+      </c>
+      <c r="I270" s="5">
+        <v>2074</v>
       </c>
       <c r="J270" s="4">
         <v>312</v>
@@ -11697,8 +11711,8 @@
       <c r="L270" s="4">
         <v>14</v>
       </c>
-      <c r="M270" s="5">
-        <v>9.8360000000000003</v>
+      <c r="M270" s="6">
+        <v>9836</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11706,26 +11720,26 @@
       <c r="B271" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C271" s="4">
-        <v>1.2529999999999999</v>
-      </c>
-      <c r="D271" s="4">
-        <v>2.089</v>
+      <c r="C271" s="5">
+        <v>1253</v>
+      </c>
+      <c r="D271" s="5">
+        <v>2089</v>
       </c>
       <c r="E271" s="4">
         <v>726</v>
       </c>
-      <c r="F271" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="G271" s="4">
-        <v>1.071</v>
-      </c>
-      <c r="H271" s="4">
-        <v>1.274</v>
-      </c>
-      <c r="I271" s="4">
-        <v>1.647</v>
+      <c r="F271" s="5">
+        <v>1530</v>
+      </c>
+      <c r="G271" s="5">
+        <v>1071</v>
+      </c>
+      <c r="H271" s="5">
+        <v>1274</v>
+      </c>
+      <c r="I271" s="5">
+        <v>1647</v>
       </c>
       <c r="J271" s="4">
         <v>201</v>
@@ -11736,8 +11750,8 @@
       <c r="L271" s="4">
         <v>32</v>
       </c>
-      <c r="M271" s="5">
-        <v>9.8249999999999993</v>
+      <c r="M271" s="6">
+        <v>9825</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11753,20 +11767,20 @@
       <c r="D272" s="4">
         <v>684</v>
       </c>
-      <c r="E272" s="4">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F272" s="4">
-        <v>1.6759999999999999</v>
+      <c r="E272" s="5">
+        <v>1090</v>
+      </c>
+      <c r="F272" s="5">
+        <v>1676</v>
       </c>
       <c r="G272" s="4">
         <v>830</v>
       </c>
-      <c r="H272" s="4">
-        <v>1.794</v>
-      </c>
-      <c r="I272" s="4">
-        <v>1.1890000000000001</v>
+      <c r="H272" s="5">
+        <v>1794</v>
+      </c>
+      <c r="I272" s="5">
+        <v>1189</v>
       </c>
       <c r="J272" s="4">
         <v>205</v>
@@ -11777,8 +11791,8 @@
       <c r="L272" s="4">
         <v>31</v>
       </c>
-      <c r="M272" s="5">
-        <v>7.6749999999999998</v>
+      <c r="M272" s="6">
+        <v>7675</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11786,14 +11800,14 @@
       <c r="B273" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C273" s="4">
-        <v>1.179</v>
-      </c>
-      <c r="D273" s="4">
-        <v>1.452</v>
-      </c>
-      <c r="E273" s="4">
-        <v>1.5069999999999999</v>
+      <c r="C273" s="5">
+        <v>1179</v>
+      </c>
+      <c r="D273" s="5">
+        <v>1452</v>
+      </c>
+      <c r="E273" s="5">
+        <v>1507</v>
       </c>
       <c r="F273" s="4">
         <v>768</v>
@@ -11801,8 +11815,8 @@
       <c r="G273" s="4">
         <v>735</v>
       </c>
-      <c r="H273" s="4">
-        <v>1.024</v>
+      <c r="H273" s="5">
+        <v>1024</v>
       </c>
       <c r="I273" s="4">
         <v>714</v>
@@ -11816,8 +11830,8 @@
       <c r="L273" s="4">
         <v>29</v>
       </c>
-      <c r="M273" s="5">
-        <v>7.4930000000000003</v>
+      <c r="M273" s="6">
+        <v>7493</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11833,17 +11847,17 @@
       <c r="D274" s="4">
         <v>464</v>
       </c>
-      <c r="E274" s="4">
-        <v>1.694</v>
-      </c>
-      <c r="F274" s="4">
-        <v>1.016</v>
+      <c r="E274" s="5">
+        <v>1694</v>
+      </c>
+      <c r="F274" s="5">
+        <v>1016</v>
       </c>
       <c r="G274" s="4">
         <v>928</v>
       </c>
-      <c r="H274" s="4">
-        <v>1.5169999999999999</v>
+      <c r="H274" s="5">
+        <v>1517</v>
       </c>
       <c r="I274" s="4">
         <v>582</v>
@@ -11857,8 +11871,8 @@
       <c r="L274" s="4">
         <v>28</v>
       </c>
-      <c r="M274" s="5">
-        <v>6.5529999999999999</v>
+      <c r="M274" s="6">
+        <v>6553</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11866,14 +11880,14 @@
       <c r="B275" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C275" s="4">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="D275" s="4">
-        <v>1.228</v>
-      </c>
-      <c r="E275" s="4">
-        <v>1.6140000000000001</v>
+      <c r="C275" s="5">
+        <v>1441</v>
+      </c>
+      <c r="D275" s="5">
+        <v>1228</v>
+      </c>
+      <c r="E275" s="5">
+        <v>1614</v>
       </c>
       <c r="F275" s="4">
         <v>323</v>
@@ -11896,8 +11910,8 @@
       <c r="L275" s="4">
         <v>40</v>
       </c>
-      <c r="M275" s="5">
-        <v>6.5170000000000003</v>
+      <c r="M275" s="6">
+        <v>6517</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11913,8 +11927,8 @@
       <c r="D276" s="4">
         <v>411</v>
       </c>
-      <c r="E276" s="4">
-        <v>1.615</v>
+      <c r="E276" s="5">
+        <v>1615</v>
       </c>
       <c r="F276" s="4">
         <v>847</v>
@@ -11922,8 +11936,8 @@
       <c r="G276" s="4">
         <v>731</v>
       </c>
-      <c r="H276" s="4">
-        <v>1.161</v>
+      <c r="H276" s="5">
+        <v>1161</v>
       </c>
       <c r="I276" s="4">
         <v>405</v>
@@ -11937,8 +11951,8 @@
       <c r="L276" s="4">
         <v>21</v>
       </c>
-      <c r="M276" s="5">
-        <v>5.43</v>
+      <c r="M276" s="6">
+        <v>5430</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11946,14 +11960,14 @@
       <c r="B277" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C277" s="4">
-        <v>1.329</v>
-      </c>
-      <c r="D277" s="4">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="E277" s="4">
-        <v>1.508</v>
+      <c r="C277" s="5">
+        <v>1329</v>
+      </c>
+      <c r="D277" s="5">
+        <v>1096</v>
+      </c>
+      <c r="E277" s="5">
+        <v>1508</v>
       </c>
       <c r="F277" s="4">
         <v>219</v>
@@ -11976,8 +11990,8 @@
       <c r="L277" s="4">
         <v>17</v>
       </c>
-      <c r="M277" s="5">
-        <v>5.5469999999999997</v>
+      <c r="M277" s="6">
+        <v>5547</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -11993,8 +12007,8 @@
       <c r="D278" s="4">
         <v>418</v>
       </c>
-      <c r="E278" s="4">
-        <v>1.482</v>
+      <c r="E278" s="5">
+        <v>1482</v>
       </c>
       <c r="F278" s="4">
         <v>603</v>
@@ -12017,8 +12031,8 @@
       <c r="L278" s="4">
         <v>11</v>
       </c>
-      <c r="M278" s="5">
-        <v>4.4859999999999998</v>
+      <c r="M278" s="6">
+        <v>4486</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12026,14 +12040,14 @@
       <c r="B279" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C279" s="4">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="D279" s="4">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="E279" s="4">
-        <v>1.0840000000000001</v>
+      <c r="C279" s="5">
+        <v>1301</v>
+      </c>
+      <c r="D279" s="5">
+        <v>1078</v>
+      </c>
+      <c r="E279" s="5">
+        <v>1084</v>
       </c>
       <c r="F279" s="4">
         <v>185</v>
@@ -12056,8 +12070,8 @@
       <c r="L279" s="4">
         <v>23</v>
       </c>
-      <c r="M279" s="5">
-        <v>4.625</v>
+      <c r="M279" s="6">
+        <v>4625</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12073,8 +12087,8 @@
       <c r="D280" s="4">
         <v>482</v>
       </c>
-      <c r="E280" s="4">
-        <v>1.3160000000000001</v>
+      <c r="E280" s="5">
+        <v>1316</v>
       </c>
       <c r="F280" s="4">
         <v>470</v>
@@ -12097,8 +12111,8 @@
       <c r="L280" s="4">
         <v>15</v>
       </c>
-      <c r="M280" s="5">
-        <v>3.9089999999999998</v>
+      <c r="M280" s="6">
+        <v>3909</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12106,8 +12120,8 @@
       <c r="B281" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C281" s="4">
-        <v>1.2949999999999999</v>
+      <c r="C281" s="5">
+        <v>1295</v>
       </c>
       <c r="D281" s="4">
         <v>874</v>
@@ -12136,8 +12150,8 @@
       <c r="L281" s="4">
         <v>18</v>
       </c>
-      <c r="M281" s="5">
-        <v>3.7170000000000001</v>
+      <c r="M281" s="6">
+        <v>3717</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12177,8 +12191,8 @@
       <c r="L282" s="4">
         <v>12</v>
       </c>
-      <c r="M282" s="5">
-        <v>2.7210000000000001</v>
+      <c r="M282" s="6">
+        <v>2721</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12186,8 +12200,8 @@
       <c r="B283" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C283" s="4">
-        <v>1.3080000000000001</v>
+      <c r="C283" s="5">
+        <v>1308</v>
       </c>
       <c r="D283" s="4">
         <v>657</v>
@@ -12216,8 +12230,8 @@
       <c r="L283" s="4">
         <v>25</v>
       </c>
-      <c r="M283" s="5">
-        <v>3.0139999999999998</v>
+      <c r="M283" s="6">
+        <v>3014</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12257,8 +12271,8 @@
       <c r="L284" s="4">
         <v>13</v>
       </c>
-      <c r="M284" s="5">
-        <v>1.738</v>
+      <c r="M284" s="6">
+        <v>1738</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12266,8 +12280,8 @@
       <c r="B285" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C285" s="4">
-        <v>1.1120000000000001</v>
+      <c r="C285" s="5">
+        <v>1112</v>
       </c>
       <c r="D285" s="4">
         <v>422</v>
@@ -12296,8 +12310,8 @@
       <c r="L285" s="4">
         <v>16</v>
       </c>
-      <c r="M285" s="5">
-        <v>2.024</v>
+      <c r="M285" s="6">
+        <v>2024</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12337,8 +12351,8 @@
       <c r="L286" s="4">
         <v>6</v>
       </c>
-      <c r="M286" s="5">
-        <v>1.345</v>
+      <c r="M286" s="6">
+        <v>1345</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12346,8 +12360,8 @@
       <c r="B287" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C287" s="4">
-        <v>1.0940000000000001</v>
+      <c r="C287" s="5">
+        <v>1094</v>
       </c>
       <c r="D287" s="4">
         <v>288</v>
@@ -12376,8 +12390,8 @@
       <c r="L287" s="4">
         <v>16</v>
       </c>
-      <c r="M287" s="5">
-        <v>1.649</v>
+      <c r="M287" s="6">
+        <v>1649</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12417,8 +12431,8 @@
       <c r="L288" s="4">
         <v>5</v>
       </c>
-      <c r="M288" s="5">
-        <v>1.5349999999999999</v>
+      <c r="M288" s="6">
+        <v>1535</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12426,8 +12440,8 @@
       <c r="B289" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C289" s="4">
-        <v>2.04</v>
+      <c r="C289" s="5">
+        <v>2040</v>
       </c>
       <c r="D289" s="4">
         <v>374</v>
@@ -12456,54 +12470,54 @@
       <c r="L289" s="4">
         <v>44</v>
       </c>
-      <c r="M289" s="5">
-        <v>2.617</v>
+      <c r="M289" s="6">
+        <v>2617</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>16.498999999999999</v>
-      </c>
-      <c r="D290" s="5">
-        <v>17.048999999999999</v>
-      </c>
-      <c r="E290" s="5">
-        <v>21.527999999999999</v>
-      </c>
-      <c r="F290" s="5">
-        <v>10.756</v>
-      </c>
-      <c r="G290" s="5">
-        <v>36.497999999999998</v>
-      </c>
-      <c r="H290" s="5">
-        <v>32.720999999999997</v>
-      </c>
-      <c r="I290" s="5">
-        <v>15.268000000000001</v>
-      </c>
-      <c r="J290" s="5">
-        <v>1.55</v>
-      </c>
-      <c r="K290" s="5">
+      <c r="B290" s="8"/>
+      <c r="C290" s="6">
+        <v>16499</v>
+      </c>
+      <c r="D290" s="6">
+        <v>17049</v>
+      </c>
+      <c r="E290" s="6">
+        <v>21528</v>
+      </c>
+      <c r="F290" s="6">
+        <v>10756</v>
+      </c>
+      <c r="G290" s="6">
+        <v>36498</v>
+      </c>
+      <c r="H290" s="6">
+        <v>32721</v>
+      </c>
+      <c r="I290" s="6">
+        <v>15268</v>
+      </c>
+      <c r="J290" s="6">
+        <v>1550</v>
+      </c>
+      <c r="K290" s="7">
         <v>53</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="7">
         <v>750</v>
       </c>
-      <c r="M290" s="5">
-        <v>152.672</v>
+      <c r="M290" s="6">
+        <v>152672</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12557,11 +12571,11 @@
       <c r="F292" s="4">
         <v>4</v>
       </c>
-      <c r="G292" s="4">
-        <v>3.0459999999999998</v>
-      </c>
-      <c r="H292" s="4">
-        <v>3.4129999999999998</v>
+      <c r="G292" s="5">
+        <v>3046</v>
+      </c>
+      <c r="H292" s="5">
+        <v>3413</v>
       </c>
       <c r="I292" s="4">
         <v>415</v>
@@ -12575,8 +12589,8 @@
       <c r="L292" s="4">
         <v>52</v>
       </c>
-      <c r="M292" s="5">
-        <v>7.1660000000000004</v>
+      <c r="M292" s="6">
+        <v>7166</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12596,11 +12610,11 @@
       <c r="F293" s="4">
         <v>3</v>
       </c>
-      <c r="G293" s="4">
-        <v>2.9340000000000002</v>
-      </c>
-      <c r="H293" s="4">
-        <v>2.8959999999999999</v>
+      <c r="G293" s="5">
+        <v>2934</v>
+      </c>
+      <c r="H293" s="5">
+        <v>2896</v>
       </c>
       <c r="I293" s="4">
         <v>515</v>
@@ -12614,8 +12628,8 @@
       <c r="L293" s="4">
         <v>16</v>
       </c>
-      <c r="M293" s="5">
-        <v>6.7469999999999999</v>
+      <c r="M293" s="6">
+        <v>6747</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12637,14 +12651,14 @@
       <c r="F294" s="4">
         <v>98</v>
       </c>
-      <c r="G294" s="4">
-        <v>1.4590000000000001</v>
-      </c>
-      <c r="H294" s="4">
-        <v>1.395</v>
-      </c>
-      <c r="I294" s="4">
-        <v>1.0860000000000001</v>
+      <c r="G294" s="5">
+        <v>1459</v>
+      </c>
+      <c r="H294" s="5">
+        <v>1395</v>
+      </c>
+      <c r="I294" s="5">
+        <v>1086</v>
       </c>
       <c r="J294" s="4">
         <v>62</v>
@@ -12655,8 +12669,8 @@
       <c r="L294" s="4">
         <v>9</v>
       </c>
-      <c r="M294" s="5">
-        <v>4.335</v>
+      <c r="M294" s="6">
+        <v>4335</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12676,8 +12690,8 @@
       <c r="F295" s="4">
         <v>125</v>
       </c>
-      <c r="G295" s="4">
-        <v>1.1319999999999999</v>
+      <c r="G295" s="5">
+        <v>1132</v>
       </c>
       <c r="H295" s="4">
         <v>630</v>
@@ -12694,8 +12708,8 @@
       <c r="L295" s="4">
         <v>19</v>
       </c>
-      <c r="M295" s="5">
-        <v>3.6930000000000001</v>
+      <c r="M295" s="6">
+        <v>3693</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12720,8 +12734,8 @@
       <c r="G296" s="4">
         <v>787</v>
       </c>
-      <c r="H296" s="4">
-        <v>1.0349999999999999</v>
+      <c r="H296" s="5">
+        <v>1035</v>
       </c>
       <c r="I296" s="4">
         <v>928</v>
@@ -12735,8 +12749,8 @@
       <c r="L296" s="4">
         <v>10</v>
       </c>
-      <c r="M296" s="5">
-        <v>3.7570000000000001</v>
+      <c r="M296" s="6">
+        <v>3757</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12774,8 +12788,8 @@
       <c r="L297" s="4">
         <v>21</v>
       </c>
-      <c r="M297" s="5">
-        <v>3.302</v>
+      <c r="M297" s="6">
+        <v>3302</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12815,8 +12829,8 @@
       <c r="L298" s="4">
         <v>14</v>
       </c>
-      <c r="M298" s="5">
-        <v>3.1030000000000002</v>
+      <c r="M298" s="6">
+        <v>3103</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12854,8 +12868,8 @@
       <c r="L299" s="4">
         <v>11</v>
       </c>
-      <c r="M299" s="5">
-        <v>2.9159999999999999</v>
+      <c r="M299" s="6">
+        <v>2916</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12895,8 +12909,8 @@
       <c r="L300" s="4">
         <v>10</v>
       </c>
-      <c r="M300" s="5">
-        <v>2.85</v>
+      <c r="M300" s="6">
+        <v>2850</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12934,8 +12948,8 @@
       <c r="L301" s="4">
         <v>17</v>
       </c>
-      <c r="M301" s="5">
-        <v>2.7850000000000001</v>
+      <c r="M301" s="6">
+        <v>2785</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12975,8 +12989,8 @@
       <c r="L302" s="4">
         <v>11</v>
       </c>
-      <c r="M302" s="5">
-        <v>2.1560000000000001</v>
+      <c r="M302" s="6">
+        <v>2156</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13014,8 +13028,8 @@
       <c r="L303" s="4">
         <v>10</v>
       </c>
-      <c r="M303" s="5">
-        <v>2.105</v>
+      <c r="M303" s="6">
+        <v>2105</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13055,8 +13069,8 @@
       <c r="L304" s="4">
         <v>3</v>
       </c>
-      <c r="M304" s="5">
-        <v>1.802</v>
+      <c r="M304" s="6">
+        <v>1802</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13094,8 +13108,8 @@
       <c r="L305" s="4">
         <v>13</v>
       </c>
-      <c r="M305" s="5">
-        <v>1.698</v>
+      <c r="M305" s="6">
+        <v>1698</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13135,8 +13149,8 @@
       <c r="L306" s="4">
         <v>5</v>
       </c>
-      <c r="M306" s="5">
-        <v>1.7769999999999999</v>
+      <c r="M306" s="6">
+        <v>1777</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13174,8 +13188,8 @@
       <c r="L307" s="4">
         <v>10</v>
       </c>
-      <c r="M307" s="5">
-        <v>1.581</v>
+      <c r="M307" s="6">
+        <v>1581</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13215,8 +13229,8 @@
       <c r="L308" s="4">
         <v>6</v>
       </c>
-      <c r="M308" s="5">
-        <v>1.3280000000000001</v>
+      <c r="M308" s="6">
+        <v>1328</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13254,8 +13268,8 @@
       <c r="L309" s="4">
         <v>8</v>
       </c>
-      <c r="M309" s="5">
-        <v>1.369</v>
+      <c r="M309" s="6">
+        <v>1369</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13295,7 +13309,7 @@
       <c r="L310" s="4">
         <v>6</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="7">
         <v>964</v>
       </c>
     </row>
@@ -13334,7 +13348,7 @@
       <c r="L311" s="4">
         <v>6</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="7">
         <v>946</v>
       </c>
     </row>
@@ -13375,7 +13389,7 @@
       <c r="L312" s="4">
         <v>2</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="7">
         <v>641</v>
       </c>
     </row>
@@ -13414,7 +13428,7 @@
       <c r="L313" s="4">
         <v>3</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="7">
         <v>822</v>
       </c>
     </row>
@@ -13455,7 +13469,7 @@
       <c r="L314" s="4">
         <v>8</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="7">
         <v>742</v>
       </c>
     </row>
@@ -13464,8 +13478,8 @@
       <c r="B315" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C315" s="4">
-        <v>1.117</v>
+      <c r="C315" s="5">
+        <v>1117</v>
       </c>
       <c r="D315" s="4">
         <v>133</v>
@@ -13494,54 +13508,54 @@
       <c r="L315" s="4">
         <v>29</v>
       </c>
-      <c r="M315" s="5">
-        <v>1.351</v>
+      <c r="M315" s="6">
+        <v>1351</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>5.9039999999999999</v>
-      </c>
-      <c r="D316" s="5">
-        <v>5.2409999999999997</v>
-      </c>
-      <c r="E316" s="5">
-        <v>8.8960000000000008</v>
-      </c>
-      <c r="F316" s="5">
-        <v>4.8029999999999999</v>
-      </c>
-      <c r="G316" s="5">
-        <v>14.228999999999999</v>
-      </c>
-      <c r="H316" s="5">
-        <v>14.706</v>
-      </c>
-      <c r="I316" s="5">
-        <v>5.476</v>
-      </c>
-      <c r="J316" s="5">
+      <c r="B316" s="8"/>
+      <c r="C316" s="6">
+        <v>5904</v>
+      </c>
+      <c r="D316" s="6">
+        <v>5241</v>
+      </c>
+      <c r="E316" s="6">
+        <v>8896</v>
+      </c>
+      <c r="F316" s="6">
+        <v>4803</v>
+      </c>
+      <c r="G316" s="6">
+        <v>14229</v>
+      </c>
+      <c r="H316" s="6">
+        <v>14706</v>
+      </c>
+      <c r="I316" s="6">
+        <v>5476</v>
+      </c>
+      <c r="J316" s="7">
         <v>372</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="7">
         <v>10</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="7">
         <v>299</v>
       </c>
-      <c r="M316" s="5">
-        <v>59.936</v>
+      <c r="M316" s="6">
+        <v>59936</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13595,11 +13609,11 @@
       <c r="F318" s="4">
         <v>8</v>
       </c>
-      <c r="G318" s="4">
-        <v>6.8209999999999997</v>
-      </c>
-      <c r="H318" s="4">
-        <v>5.8029999999999999</v>
+      <c r="G318" s="5">
+        <v>6821</v>
+      </c>
+      <c r="H318" s="5">
+        <v>5803</v>
       </c>
       <c r="I318" s="4">
         <v>561</v>
@@ -13613,8 +13627,8 @@
       <c r="L318" s="4">
         <v>265</v>
       </c>
-      <c r="M318" s="5">
-        <v>14.157999999999999</v>
+      <c r="M318" s="6">
+        <v>14158</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13634,11 +13648,11 @@
       <c r="F319" s="4">
         <v>10</v>
       </c>
-      <c r="G319" s="4">
-        <v>7.0359999999999996</v>
-      </c>
-      <c r="H319" s="4">
-        <v>4.8230000000000004</v>
+      <c r="G319" s="5">
+        <v>7036</v>
+      </c>
+      <c r="H319" s="5">
+        <v>4823</v>
       </c>
       <c r="I319" s="4">
         <v>800</v>
@@ -13652,8 +13666,8 @@
       <c r="L319" s="4">
         <v>38</v>
       </c>
-      <c r="M319" s="5">
-        <v>14.016</v>
+      <c r="M319" s="6">
+        <v>14016</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13675,14 +13689,14 @@
       <c r="F320" s="4">
         <v>292</v>
       </c>
-      <c r="G320" s="4">
-        <v>3.19</v>
-      </c>
-      <c r="H320" s="4">
-        <v>2.319</v>
-      </c>
-      <c r="I320" s="4">
-        <v>1.7769999999999999</v>
+      <c r="G320" s="5">
+        <v>3190</v>
+      </c>
+      <c r="H320" s="5">
+        <v>2319</v>
+      </c>
+      <c r="I320" s="5">
+        <v>1777</v>
       </c>
       <c r="J320" s="4">
         <v>159</v>
@@ -13693,8 +13707,8 @@
       <c r="L320" s="4">
         <v>41</v>
       </c>
-      <c r="M320" s="5">
-        <v>8.5950000000000006</v>
+      <c r="M320" s="6">
+        <v>8595</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13705,23 +13719,23 @@
       <c r="C321" s="4">
         <v>322</v>
       </c>
-      <c r="D321" s="4">
-        <v>1.4930000000000001</v>
-      </c>
-      <c r="E321" s="4">
-        <v>1.0720000000000001</v>
+      <c r="D321" s="5">
+        <v>1493</v>
+      </c>
+      <c r="E321" s="5">
+        <v>1072</v>
       </c>
       <c r="F321" s="4">
         <v>341</v>
       </c>
-      <c r="G321" s="4">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="H321" s="4">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="I321" s="4">
-        <v>2.0550000000000002</v>
+      <c r="G321" s="5">
+        <v>2667</v>
+      </c>
+      <c r="H321" s="5">
+        <v>1188</v>
+      </c>
+      <c r="I321" s="5">
+        <v>2055</v>
       </c>
       <c r="J321" s="4">
         <v>196</v>
@@ -13732,8 +13746,8 @@
       <c r="L321" s="4">
         <v>59</v>
       </c>
-      <c r="M321" s="5">
-        <v>9.3930000000000007</v>
+      <c r="M321" s="6">
+        <v>9393</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13752,17 +13766,17 @@
       <c r="E322" s="4">
         <v>506</v>
       </c>
-      <c r="F322" s="4">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="G322" s="4">
-        <v>1.3939999999999999</v>
-      </c>
-      <c r="H322" s="4">
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="I322" s="4">
-        <v>1.552</v>
+      <c r="F322" s="5">
+        <v>1384</v>
+      </c>
+      <c r="G322" s="5">
+        <v>1394</v>
+      </c>
+      <c r="H322" s="5">
+        <v>1935</v>
+      </c>
+      <c r="I322" s="5">
+        <v>1552</v>
       </c>
       <c r="J322" s="4">
         <v>305</v>
@@ -13773,8 +13787,8 @@
       <c r="L322" s="4">
         <v>38</v>
       </c>
-      <c r="M322" s="5">
-        <v>7.702</v>
+      <c r="M322" s="6">
+        <v>7702</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13785,20 +13799,20 @@
       <c r="C323" s="4">
         <v>908</v>
       </c>
-      <c r="D323" s="4">
-        <v>1.726</v>
+      <c r="D323" s="5">
+        <v>1726</v>
       </c>
       <c r="E323" s="4">
         <v>604</v>
       </c>
-      <c r="F323" s="4">
-        <v>1.008</v>
-      </c>
-      <c r="G323" s="4">
-        <v>1.111</v>
-      </c>
-      <c r="H323" s="4">
-        <v>1.1870000000000001</v>
+      <c r="F323" s="5">
+        <v>1008</v>
+      </c>
+      <c r="G323" s="5">
+        <v>1111</v>
+      </c>
+      <c r="H323" s="5">
+        <v>1187</v>
       </c>
       <c r="I323" s="4">
         <v>994</v>
@@ -13812,8 +13826,8 @@
       <c r="L323" s="4">
         <v>85</v>
       </c>
-      <c r="M323" s="5">
-        <v>7.7919999999999998</v>
+      <c r="M323" s="6">
+        <v>7792</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13832,14 +13846,14 @@
       <c r="E324" s="4">
         <v>739</v>
       </c>
-      <c r="F324" s="4">
-        <v>1.1719999999999999</v>
+      <c r="F324" s="5">
+        <v>1172</v>
       </c>
       <c r="G324" s="4">
         <v>871</v>
       </c>
-      <c r="H324" s="4">
-        <v>1.6439999999999999</v>
+      <c r="H324" s="5">
+        <v>1644</v>
       </c>
       <c r="I324" s="4">
         <v>758</v>
@@ -13853,8 +13867,8 @@
       <c r="L324" s="4">
         <v>79</v>
       </c>
-      <c r="M324" s="5">
-        <v>5.91</v>
+      <c r="M324" s="6">
+        <v>5910</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13865,11 +13879,11 @@
       <c r="C325" s="4">
         <v>973</v>
       </c>
-      <c r="D325" s="4">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="E325" s="4">
-        <v>1.036</v>
+      <c r="D325" s="5">
+        <v>1074</v>
+      </c>
+      <c r="E325" s="5">
+        <v>1036</v>
       </c>
       <c r="F325" s="4">
         <v>479</v>
@@ -13877,8 +13891,8 @@
       <c r="G325" s="4">
         <v>967</v>
       </c>
-      <c r="H325" s="4">
-        <v>1.161</v>
+      <c r="H325" s="5">
+        <v>1161</v>
       </c>
       <c r="I325" s="4">
         <v>345</v>
@@ -13892,8 +13906,8 @@
       <c r="L325" s="4">
         <v>81</v>
       </c>
-      <c r="M325" s="5">
-        <v>6.1760000000000002</v>
+      <c r="M325" s="6">
+        <v>6176</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13909,8 +13923,8 @@
       <c r="D326" s="4">
         <v>260</v>
       </c>
-      <c r="E326" s="4">
-        <v>1.0900000000000001</v>
+      <c r="E326" s="5">
+        <v>1090</v>
       </c>
       <c r="F326" s="4">
         <v>884</v>
@@ -13918,8 +13932,8 @@
       <c r="G326" s="4">
         <v>945</v>
       </c>
-      <c r="H326" s="4">
-        <v>1.411</v>
+      <c r="H326" s="5">
+        <v>1411</v>
       </c>
       <c r="I326" s="4">
         <v>437</v>
@@ -13933,8 +13947,8 @@
       <c r="L326" s="4">
         <v>52</v>
       </c>
-      <c r="M326" s="5">
-        <v>5.2830000000000004</v>
+      <c r="M326" s="6">
+        <v>5283</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13942,20 +13956,20 @@
       <c r="B327" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C327" s="4">
-        <v>1.07</v>
+      <c r="C327" s="5">
+        <v>1070</v>
       </c>
       <c r="D327" s="4">
         <v>857</v>
       </c>
-      <c r="E327" s="4">
-        <v>1.091</v>
+      <c r="E327" s="5">
+        <v>1091</v>
       </c>
       <c r="F327" s="4">
         <v>226</v>
       </c>
-      <c r="G327" s="4">
-        <v>1.0660000000000001</v>
+      <c r="G327" s="5">
+        <v>1066</v>
       </c>
       <c r="H327" s="4">
         <v>892</v>
@@ -13972,8 +13986,8 @@
       <c r="L327" s="4">
         <v>64</v>
       </c>
-      <c r="M327" s="5">
-        <v>5.4569999999999999</v>
+      <c r="M327" s="6">
+        <v>5457</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14013,8 +14027,8 @@
       <c r="L328" s="4">
         <v>38</v>
       </c>
-      <c r="M328" s="5">
-        <v>3.71</v>
+      <c r="M328" s="6">
+        <v>3710</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14052,8 +14066,8 @@
       <c r="L329" s="4">
         <v>56</v>
       </c>
-      <c r="M329" s="5">
-        <v>3.9820000000000002</v>
+      <c r="M329" s="6">
+        <v>3982</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14093,8 +14107,8 @@
       <c r="L330" s="4">
         <v>19</v>
       </c>
-      <c r="M330" s="5">
-        <v>2.6680000000000001</v>
+      <c r="M330" s="6">
+        <v>2668</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14132,8 +14146,8 @@
       <c r="L331" s="4">
         <v>48</v>
       </c>
-      <c r="M331" s="5">
-        <v>2.7570000000000001</v>
+      <c r="M331" s="6">
+        <v>2757</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14173,8 +14187,8 @@
       <c r="L332" s="4">
         <v>28</v>
       </c>
-      <c r="M332" s="5">
-        <v>2.6419999999999999</v>
+      <c r="M332" s="6">
+        <v>2642</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14212,8 +14226,8 @@
       <c r="L333" s="4">
         <v>58</v>
       </c>
-      <c r="M333" s="5">
-        <v>2.7749999999999999</v>
+      <c r="M333" s="6">
+        <v>2775</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14253,8 +14267,8 @@
       <c r="L334" s="4">
         <v>21</v>
       </c>
-      <c r="M334" s="5">
-        <v>1.8360000000000001</v>
+      <c r="M334" s="6">
+        <v>1836</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14292,8 +14306,8 @@
       <c r="L335" s="4">
         <v>36</v>
       </c>
-      <c r="M335" s="5">
-        <v>2.2290000000000001</v>
+      <c r="M335" s="6">
+        <v>2229</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14333,8 +14347,8 @@
       <c r="L336" s="4">
         <v>17</v>
       </c>
-      <c r="M336" s="5">
-        <v>1.244</v>
+      <c r="M336" s="6">
+        <v>1244</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14372,8 +14386,8 @@
       <c r="L337" s="4">
         <v>38</v>
       </c>
-      <c r="M337" s="5">
-        <v>1.343</v>
+      <c r="M337" s="6">
+        <v>1343</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14413,7 +14427,7 @@
       <c r="L338" s="4">
         <v>24</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="7">
         <v>854</v>
       </c>
     </row>
@@ -14452,8 +14466,8 @@
       <c r="L339" s="4">
         <v>39</v>
       </c>
-      <c r="M339" s="5">
-        <v>1.1000000000000001</v>
+      <c r="M339" s="6">
+        <v>1100</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14493,7 +14507,7 @@
       <c r="L340" s="4">
         <v>28</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="7">
         <v>917</v>
       </c>
     </row>
@@ -14502,8 +14516,8 @@
       <c r="B341" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C341" s="4">
-        <v>1.35</v>
+      <c r="C341" s="5">
+        <v>1350</v>
       </c>
       <c r="D341" s="4">
         <v>200</v>
@@ -14532,47 +14546,57 @@
       <c r="L341" s="4">
         <v>72</v>
       </c>
-      <c r="M341" s="5">
-        <v>1.738</v>
+      <c r="M341" s="6">
+        <v>1738</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>10.702999999999999</v>
-      </c>
-      <c r="D342" s="5">
-        <v>11.768000000000001</v>
-      </c>
-      <c r="E342" s="5">
-        <v>14.404999999999999</v>
-      </c>
-      <c r="F342" s="5">
-        <v>7.9269999999999996</v>
-      </c>
-      <c r="G342" s="5">
-        <v>30.434999999999999</v>
-      </c>
-      <c r="H342" s="5">
-        <v>26.425000000000001</v>
-      </c>
-      <c r="I342" s="5">
-        <v>10.019</v>
-      </c>
-      <c r="J342" s="5">
-        <v>1.228</v>
-      </c>
-      <c r="K342" s="5">
+      <c r="B342" s="8"/>
+      <c r="C342" s="6">
+        <v>10703</v>
+      </c>
+      <c r="D342" s="6">
+        <v>11768</v>
+      </c>
+      <c r="E342" s="6">
+        <v>14405</v>
+      </c>
+      <c r="F342" s="6">
+        <v>7927</v>
+      </c>
+      <c r="G342" s="6">
+        <v>30435</v>
+      </c>
+      <c r="H342" s="6">
+        <v>26425</v>
+      </c>
+      <c r="I342" s="6">
+        <v>10019</v>
+      </c>
+      <c r="J342" s="6">
+        <v>1228</v>
+      </c>
+      <c r="K342" s="7">
         <v>43</v>
       </c>
-      <c r="L342" s="5">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="M342" s="5">
-        <v>114.277</v>
+      <c r="L342" s="6">
+        <v>1324</v>
+      </c>
+      <c r="M342" s="6">
+        <v>114277</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A343" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A344" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
